--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
@@ -7432,9 +7432,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51CE3B2-5C01-4111-8342-33168747EF50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B41B06-2D60-4E9E-B21F-DB1C56680EE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC5A5CA-45EE-4E34-A8C9-F0423F3D34DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA41605-E73D-4584-B6B4-0946931FAE18}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Hypothesis/Output/Detenciones/Tipo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3C251B5610DA0632F8CF9FC34F85F017CE4AA699" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38255BBB-2E9B-6C49-9E43-91D213033AC3}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Generales" r:id="rId3" sheetId="1"/>
-    <sheet name="Resultados Generales (modelo fu" r:id="rId4" sheetId="2"/>
-    <sheet name="Resultados Generales (efectos m" r:id="rId5" sheetId="3"/>
-    <sheet name="Por Corporacion_grupos" r:id="rId6" sheetId="4"/>
-    <sheet name="Por Estado" r:id="rId7" sheetId="5"/>
-    <sheet name="Por Sexo" r:id="rId8" sheetId="6"/>
+    <sheet name="Resultados Generales" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados Generales (modelo fu" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados Generales (efectos m" sheetId="3" r:id="rId3"/>
+    <sheet name="Por Corporacion_grupos" sheetId="4" r:id="rId4"/>
+    <sheet name="Por Estado" sheetId="5" r:id="rId5"/>
+    <sheet name="Por Sexo" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -469,11 +477,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -485,7 +492,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -503,18 +510,326 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -568,8 +883,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.001495420596303869</v>
+      <c r="E2">
+        <v>-1.495420596303869E-3</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -583,33 +898,33 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.0030510553313184007</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.021413871068861E-5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32060.0</v>
+      <c r="J2">
+        <v>-3.0510553313184007E-3</v>
+      </c>
+      <c r="K2">
+        <v>6.0214138710688609E-5</v>
+      </c>
+      <c r="L2">
+        <v>32060</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -657,8 +972,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>-3.827777730262621</v>
+      <c r="E2">
+        <v>-3.8277777302626208</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -672,14 +987,14 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="n">
-        <v>32015.0</v>
+      <c r="J2">
+        <v>32015</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -692,7 +1007,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.30591469903733176</v>
       </c>
       <c r="F3" t="s">
@@ -707,14 +1022,14 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
-        <v>32015.0</v>
+      <c r="J3">
+        <v>32015</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -727,8 +1042,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.516605266593208</v>
+      <c r="E4">
+        <v>0.51660526659320805</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -742,14 +1057,14 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>32015.0</v>
+      <c r="J4">
+        <v>32015</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -762,7 +1077,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.2523944783325187</v>
       </c>
       <c r="F5" t="s">
@@ -777,14 +1092,14 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="n">
-        <v>32015.0</v>
+      <c r="J5">
+        <v>32015</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -797,7 +1112,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.3792520012878633</v>
       </c>
       <c r="F6" t="s">
@@ -812,14 +1127,14 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="n">
-        <v>32015.0</v>
+      <c r="J6">
+        <v>32015</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -832,8 +1147,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.028580099851393</v>
+      <c r="E7">
+        <v>2.0285800998513932</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -847,14 +1162,14 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
-        <v>32015.0</v>
+      <c r="J7">
+        <v>32015</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -867,8 +1182,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>3.491831313647353</v>
+      <c r="E8">
+        <v>3.4918313136473529</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -882,14 +1197,14 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="n">
-        <v>32015.0</v>
+      <c r="J8">
+        <v>32015</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -902,8 +1217,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
-        <v>3.42971402252662</v>
+      <c r="E9">
+        <v>3.4297140225266198</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -917,14 +1232,14 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>32015.0</v>
+      <c r="J9">
+        <v>32015</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -937,7 +1252,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.8103810208390765</v>
       </c>
       <c r="F10" t="s">
@@ -952,14 +1267,14 @@
       <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="n">
-        <v>32015.0</v>
+      <c r="J10">
+        <v>32015</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1287,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.8898972227183555</v>
       </c>
       <c r="F11" t="s">
@@ -987,14 +1302,14 @@
       <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="n">
-        <v>32015.0</v>
+      <c r="J11">
+        <v>32015</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1322,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.2345614871731557</v>
       </c>
       <c r="F12" t="s">
@@ -1022,14 +1337,14 @@
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="n">
-        <v>32015.0</v>
+      <c r="J12">
+        <v>32015</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +1357,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.268948241154312</v>
+      <c r="E13">
+        <v>-0.26894824115431198</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1057,14 +1372,14 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="n">
-        <v>32015.0</v>
+      <c r="J13">
+        <v>32015</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1392,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.18181926664600537</v>
       </c>
       <c r="F14" t="s">
@@ -1092,14 +1407,14 @@
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
-        <v>32015.0</v>
+      <c r="J14">
+        <v>32015</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1112,8 +1427,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.6711796003508173</v>
+      <c r="E15">
+        <v>-0.67117960035081725</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1127,14 +1442,14 @@
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="n">
-        <v>32015.0</v>
+      <c r="J15">
+        <v>32015</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1147,8 +1462,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.6208322798847568</v>
+      <c r="E16">
+        <v>-0.62083227988475675</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1162,14 +1477,14 @@
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>32015.0</v>
+      <c r="J16">
+        <v>32015</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1182,8 +1497,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>-0.4244307173312323</v>
+      <c r="E17">
+        <v>-0.42443071733123228</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1197,14 +1512,14 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="n">
-        <v>32015.0</v>
+      <c r="J17">
+        <v>32015</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1532,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>-1.215671272179505</v>
+      <c r="E18">
+        <v>-1.2156712721795051</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1232,14 +1547,14 @@
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" t="n">
-        <v>32015.0</v>
+      <c r="J18">
+        <v>32015</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1252,8 +1567,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.03619907977436798</v>
+      <c r="E19">
+        <v>-3.6199079774367982E-2</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1267,14 +1582,14 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19" t="n">
-        <v>32015.0</v>
+      <c r="J19">
+        <v>32015</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1287,8 +1602,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
-        <v>-0.03327763852351358</v>
+      <c r="E20">
+        <v>-3.3277638523513578E-2</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1302,14 +1617,14 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="n">
-        <v>32015.0</v>
+      <c r="J20">
+        <v>32015</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1322,8 +1637,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="n">
-        <v>-0.06673060085227006</v>
+      <c r="E21">
+        <v>-6.6730600852270061E-2</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1337,14 +1652,14 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="n">
-        <v>32015.0</v>
+      <c r="J21">
+        <v>32015</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1672,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
-        <v>-0.826750368410324</v>
+      <c r="E22">
+        <v>-0.82675036841032401</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1372,14 +1687,14 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" t="n">
-        <v>32015.0</v>
+      <c r="J22">
+        <v>32015</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1392,8 +1707,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.7591249719805208</v>
+      <c r="E23">
+        <v>-0.75912497198052076</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1407,14 +1722,14 @@
       <c r="I23" t="s">
         <v>19</v>
       </c>
-      <c r="J23" t="n">
-        <v>32015.0</v>
+      <c r="J23">
+        <v>32015</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1742,7 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-0.28326081502266875</v>
       </c>
       <c r="F24" t="s">
@@ -1442,14 +1757,14 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24" t="n">
-        <v>32015.0</v>
+      <c r="J24">
+        <v>32015</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1777,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-1.3767112608070986</v>
       </c>
       <c r="F25" t="s">
@@ -1477,14 +1792,14 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" t="n">
-        <v>32015.0</v>
+      <c r="J25">
+        <v>32015</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1497,8 +1812,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
-        <v>-1.21813969732652</v>
+      <c r="E26">
+        <v>-1.2181396973265199</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1512,14 +1827,14 @@
       <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="J26" t="n">
-        <v>32015.0</v>
+      <c r="J26">
+        <v>32015</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1532,8 +1847,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.4017633200781157</v>
+      <c r="E27">
+        <v>-0.40176332007811572</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1547,14 +1862,14 @@
       <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="J27" t="n">
-        <v>32015.0</v>
+      <c r="J27">
+        <v>32015</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1567,8 +1882,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
-        <v>-0.5604424459348645</v>
+      <c r="E28">
+        <v>-0.56044244593486447</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1582,14 +1897,14 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28" t="n">
-        <v>32015.0</v>
+      <c r="J28">
+        <v>32015</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1917,7 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-0.46951972498114997</v>
       </c>
       <c r="F29" t="s">
@@ -1617,14 +1932,14 @@
       <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="J29" t="n">
-        <v>32015.0</v>
+      <c r="J29">
+        <v>32015</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1637,8 +1952,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>-0.09060308375411422</v>
+      <c r="E30">
+        <v>-9.0603083754114216E-2</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1652,14 +1967,14 @@
       <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="J30" t="n">
-        <v>32015.0</v>
+      <c r="J30">
+        <v>32015</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1672,8 +1987,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="n">
-        <v>-1.05307378915638</v>
+      <c r="E31">
+        <v>-1.0530737891563799</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1687,14 +2002,14 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" t="n">
-        <v>32015.0</v>
+      <c r="J31">
+        <v>32015</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1707,8 +2022,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.005815997330442945</v>
+      <c r="E32">
+        <v>5.8159973304429454E-3</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1722,14 +2037,14 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32" t="n">
-        <v>32015.0</v>
+      <c r="J32">
+        <v>32015</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1742,8 +2057,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>-0.5889446654275327</v>
+      <c r="E33">
+        <v>-0.58894466542753265</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1757,14 +2072,14 @@
       <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="J33" t="n">
-        <v>32015.0</v>
+      <c r="J33">
+        <v>32015</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +2092,7 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.14411031820238343</v>
       </c>
       <c r="F34" t="s">
@@ -1792,14 +2107,14 @@
       <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="J34" t="n">
-        <v>32015.0</v>
+      <c r="J34">
+        <v>32015</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1812,8 +2127,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.4196119576985359</v>
+      <c r="E35">
+        <v>0.41961195769853588</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1827,14 +2142,14 @@
       <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="J35" t="n">
-        <v>32015.0</v>
+      <c r="J35">
+        <v>32015</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1847,8 +2162,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.04827673309006694</v>
+      <c r="E36">
+        <v>4.8276733090066942E-2</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1862,14 +2177,14 @@
       <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="J36" t="n">
-        <v>32015.0</v>
+      <c r="J36">
+        <v>32015</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +2197,7 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-0.43980120566970654</v>
       </c>
       <c r="F37" t="s">
@@ -1897,14 +2212,14 @@
       <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="J37" t="n">
-        <v>32015.0</v>
+      <c r="J37">
+        <v>32015</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1917,8 +2232,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
-        <v>-0.4281333290010133</v>
+      <c r="E38">
+        <v>-0.42813332900101331</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1932,14 +2247,14 @@
       <c r="I38" t="s">
         <v>19</v>
       </c>
-      <c r="J38" t="n">
-        <v>32015.0</v>
+      <c r="J38">
+        <v>32015</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +2267,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-0.49004048952008966</v>
       </c>
       <c r="F39" t="s">
@@ -1967,14 +2282,14 @@
       <c r="I39" t="s">
         <v>19</v>
       </c>
-      <c r="J39" t="n">
-        <v>32015.0</v>
+      <c r="J39">
+        <v>32015</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1987,8 +2302,8 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="n">
-        <v>-0.598012477731942</v>
+      <c r="E40">
+        <v>-0.59801247773194199</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2002,14 +2317,14 @@
       <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="J40" t="n">
-        <v>32015.0</v>
+      <c r="J40">
+        <v>32015</v>
       </c>
       <c r="K40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2337,7 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-0.17980939330115073</v>
       </c>
       <c r="F41" t="s">
@@ -2037,14 +2352,14 @@
       <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="J41" t="n">
-        <v>32015.0</v>
+      <c r="J41">
+        <v>32015</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2372,7 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-1.2435327518559574</v>
       </c>
       <c r="F42" t="s">
@@ -2072,14 +2387,14 @@
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42" t="n">
-        <v>32015.0</v>
+      <c r="J42">
+        <v>32015</v>
       </c>
       <c r="K42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2407,7 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.26525892911630455</v>
       </c>
       <c r="F43" t="s">
@@ -2107,14 +2422,14 @@
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43" t="n">
-        <v>32015.0</v>
+      <c r="J43">
+        <v>32015</v>
       </c>
       <c r="K43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2442,7 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-0.13828176063967104</v>
       </c>
       <c r="F44" t="s">
@@ -2142,14 +2457,14 @@
       <c r="I44" t="s">
         <v>19</v>
       </c>
-      <c r="J44" t="n">
-        <v>32015.0</v>
+      <c r="J44">
+        <v>32015</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2162,7 +2477,7 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-0.26815653353842184</v>
       </c>
       <c r="F45" t="s">
@@ -2177,14 +2492,14 @@
       <c r="I45" t="s">
         <v>18</v>
       </c>
-      <c r="J45" t="n">
-        <v>32015.0</v>
+      <c r="J45">
+        <v>32015</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2197,8 +2512,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="n">
-        <v>-0.3366129380876683</v>
+      <c r="E46">
+        <v>-0.33661293808766829</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2212,14 +2527,14 @@
       <c r="I46" t="s">
         <v>19</v>
       </c>
-      <c r="J46" t="n">
-        <v>32015.0</v>
+      <c r="J46">
+        <v>32015</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2232,8 +2547,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" t="n">
-        <v>-0.2501760954267395</v>
+      <c r="E47">
+        <v>-0.25017609542673952</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2247,14 +2562,14 @@
       <c r="I47" t="s">
         <v>18</v>
       </c>
-      <c r="J47" t="n">
-        <v>32015.0</v>
+      <c r="J47">
+        <v>32015</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2582,7 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-0.22800045272505295</v>
       </c>
       <c r="F48" t="s">
@@ -2282,14 +2597,14 @@
       <c r="I48" t="s">
         <v>19</v>
       </c>
-      <c r="J48" t="n">
-        <v>32015.0</v>
+      <c r="J48">
+        <v>32015</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2617,7 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-0.22954121346094922</v>
       </c>
       <c r="F49" t="s">
@@ -2317,14 +2632,14 @@
       <c r="I49" t="s">
         <v>19</v>
       </c>
-      <c r="J49" t="n">
-        <v>32015.0</v>
+      <c r="J49">
+        <v>32015</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2652,7 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-0.30671039070168055</v>
       </c>
       <c r="F50" t="s">
@@ -2352,14 +2667,14 @@
       <c r="I50" t="s">
         <v>18</v>
       </c>
-      <c r="J50" t="n">
-        <v>32015.0</v>
+      <c r="J50">
+        <v>32015</v>
       </c>
       <c r="K50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2687,7 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-0.17980986254059264</v>
       </c>
       <c r="F51" t="s">
@@ -2387,14 +2702,14 @@
       <c r="I51" t="s">
         <v>19</v>
       </c>
-      <c r="J51" t="n">
-        <v>32015.0</v>
+      <c r="J51">
+        <v>32015</v>
       </c>
       <c r="K51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2407,8 +2722,8 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52" t="n">
-        <v>-0.028116969451639422</v>
+      <c r="E52">
+        <v>-2.8116969451639422E-2</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2422,14 +2737,14 @@
       <c r="I52" t="s">
         <v>19</v>
       </c>
-      <c r="J52" t="n">
-        <v>32015.0</v>
+      <c r="J52">
+        <v>32015</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2442,8 +2757,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.09369391458890927</v>
+      <c r="E53">
+        <v>9.3693914588909272E-2</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2457,14 +2772,14 @@
       <c r="I53" t="s">
         <v>19</v>
       </c>
-      <c r="J53" t="n">
-        <v>32015.0</v>
+      <c r="J53">
+        <v>32015</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2477,8 +2792,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" t="n">
-        <v>-0.09826075238645274</v>
+      <c r="E54">
+        <v>-9.8260752386452738E-2</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2492,14 +2807,14 @@
       <c r="I54" t="s">
         <v>19</v>
       </c>
-      <c r="J54" t="n">
-        <v>32015.0</v>
+      <c r="J54">
+        <v>32015</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2512,8 +2827,8 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55" t="n">
-        <v>-0.03963218886627215</v>
+      <c r="E55">
+        <v>-3.963218886627215E-2</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2527,14 +2842,14 @@
       <c r="I55" t="s">
         <v>19</v>
       </c>
-      <c r="J55" t="n">
-        <v>32015.0</v>
+      <c r="J55">
+        <v>32015</v>
       </c>
       <c r="K55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2547,8 +2862,8 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E56" t="n">
-        <v>-0.014520694571264928</v>
+      <c r="E56">
+        <v>-1.4520694571264928E-2</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2562,14 +2877,14 @@
       <c r="I56" t="s">
         <v>19</v>
       </c>
-      <c r="J56" t="n">
-        <v>32015.0</v>
+      <c r="J56">
+        <v>32015</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2582,7 +2897,7 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-0.138111261813815</v>
       </c>
       <c r="F57" t="s">
@@ -2597,14 +2912,14 @@
       <c r="I57" t="s">
         <v>19</v>
       </c>
-      <c r="J57" t="n">
-        <v>32015.0</v>
+      <c r="J57">
+        <v>32015</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2617,8 +2932,8 @@
       <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.044226473836673205</v>
+      <c r="E58">
+        <v>4.4226473836673205E-2</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2632,14 +2947,14 @@
       <c r="I58" t="s">
         <v>19</v>
       </c>
-      <c r="J58" t="n">
-        <v>32015.0</v>
+      <c r="J58">
+        <v>32015</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2652,8 +2967,8 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59" t="n">
-        <v>-0.0803809715058131</v>
+      <c r="E59">
+        <v>-8.0380971505813095E-2</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2667,14 +2982,14 @@
       <c r="I59" t="s">
         <v>19</v>
       </c>
-      <c r="J59" t="n">
-        <v>32015.0</v>
+      <c r="J59">
+        <v>32015</v>
       </c>
       <c r="K59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2687,7 +3002,7 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-0.10713593816917999</v>
       </c>
       <c r="F60" t="s">
@@ -2702,14 +3017,14 @@
       <c r="I60" t="s">
         <v>19</v>
       </c>
-      <c r="J60" t="n">
-        <v>32015.0</v>
+      <c r="J60">
+        <v>32015</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +3037,7 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-0.12579916047949982</v>
       </c>
       <c r="F61" t="s">
@@ -2737,14 +3052,14 @@
       <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="J61" t="n">
-        <v>32015.0</v>
+      <c r="J61">
+        <v>32015</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +3072,8 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="E62" t="n">
-        <v>-0.011535601534138042</v>
+      <c r="E62">
+        <v>-1.1535601534138042E-2</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2772,14 +3087,14 @@
       <c r="I62" t="s">
         <v>19</v>
       </c>
-      <c r="J62" t="n">
-        <v>32015.0</v>
+      <c r="J62">
+        <v>32015</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +3107,7 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.12461242678001185</v>
       </c>
       <c r="F63" t="s">
@@ -2807,14 +3122,14 @@
       <c r="I63" t="s">
         <v>19</v>
       </c>
-      <c r="J63" t="n">
-        <v>32015.0</v>
+      <c r="J63">
+        <v>32015</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2827,8 +3142,8 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.08322069437729732</v>
+      <c r="E64">
+        <v>8.3220694377297316E-2</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2842,14 +3157,14 @@
       <c r="I64" t="s">
         <v>19</v>
       </c>
-      <c r="J64" t="n">
-        <v>32015.0</v>
+      <c r="J64">
+        <v>32015</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2862,8 +3177,8 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="E65" t="n">
-        <v>-0.03004766939886264</v>
+      <c r="E65">
+        <v>-3.004766939886264E-2</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2877,14 +3192,14 @@
       <c r="I65" t="s">
         <v>19</v>
       </c>
-      <c r="J65" t="n">
-        <v>32015.0</v>
+      <c r="J65">
+        <v>32015</v>
       </c>
       <c r="K65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +3212,7 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.15300819339807387</v>
       </c>
       <c r="F66" t="s">
@@ -2912,14 +3227,14 @@
       <c r="I66" t="s">
         <v>19</v>
       </c>
-      <c r="J66" t="n">
-        <v>32015.0</v>
+      <c r="J66">
+        <v>32015</v>
       </c>
       <c r="K66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2932,8 +3247,8 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="E67" t="n">
-        <v>-0.09599986387837661</v>
+      <c r="E67">
+        <v>-9.5999863878376612E-2</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -2947,14 +3262,14 @@
       <c r="I67" t="s">
         <v>19</v>
       </c>
-      <c r="J67" t="n">
-        <v>32015.0</v>
+      <c r="J67">
+        <v>32015</v>
       </c>
       <c r="K67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2967,7 +3282,7 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.12926276982995077</v>
       </c>
       <c r="F68" t="s">
@@ -2982,14 +3297,14 @@
       <c r="I68" t="s">
         <v>19</v>
       </c>
-      <c r="J68" t="n">
-        <v>32015.0</v>
+      <c r="J68">
+        <v>32015</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3002,8 +3317,8 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.006374714008472854</v>
+      <c r="E69">
+        <v>-6.3747140084728536E-3</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -3017,14 +3332,14 @@
       <c r="I69" t="s">
         <v>19</v>
       </c>
-      <c r="J69" t="n">
-        <v>32015.0</v>
+      <c r="J69">
+        <v>32015</v>
       </c>
       <c r="K69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3037,8 +3352,8 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="E70" t="n">
-        <v>-0.006139042957489494</v>
+      <c r="E70">
+        <v>-6.1390429574894939E-3</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3052,14 +3367,14 @@
       <c r="I70" t="s">
         <v>19</v>
       </c>
-      <c r="J70" t="n">
-        <v>32015.0</v>
+      <c r="J70">
+        <v>32015</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3072,8 +3387,8 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" t="n">
-        <v>-0.036208231897446694</v>
+      <c r="E71">
+        <v>-3.6208231897446694E-2</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -3087,14 +3402,14 @@
       <c r="I71" t="s">
         <v>19</v>
       </c>
-      <c r="J71" t="n">
-        <v>32015.0</v>
+      <c r="J71">
+        <v>32015</v>
       </c>
       <c r="K71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3422,7 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-0.11633891573946546</v>
       </c>
       <c r="F72" t="s">
@@ -3122,14 +3437,14 @@
       <c r="I72" t="s">
         <v>19</v>
       </c>
-      <c r="J72" t="n">
-        <v>32015.0</v>
+      <c r="J72">
+        <v>32015</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3142,8 +3457,8 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.057692203269313604</v>
+      <c r="E73">
+        <v>5.7692203269313604E-2</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -3157,14 +3472,14 @@
       <c r="I73" t="s">
         <v>19</v>
       </c>
-      <c r="J73" t="n">
-        <v>32015.0</v>
+      <c r="J73">
+        <v>32015</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3177,8 +3492,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="E74" t="n">
-        <v>-0.09098439635320447</v>
+      <c r="E74">
+        <v>-9.0984396353204475E-2</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -3192,14 +3507,14 @@
       <c r="I74" t="s">
         <v>19</v>
       </c>
-      <c r="J74" t="n">
-        <v>32015.0</v>
+      <c r="J74">
+        <v>32015</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3212,8 +3527,8 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.03629319425200302</v>
+      <c r="E75">
+        <v>3.6293194252003023E-2</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -3227,14 +3542,14 @@
       <c r="I75" t="s">
         <v>19</v>
       </c>
-      <c r="J75" t="n">
-        <v>32015.0</v>
+      <c r="J75">
+        <v>32015</v>
       </c>
       <c r="K75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3247,7 +3562,7 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-0.1485893956867525</v>
       </c>
       <c r="F76" t="s">
@@ -3262,14 +3577,14 @@
       <c r="I76" t="s">
         <v>19</v>
       </c>
-      <c r="J76" t="n">
-        <v>32015.0</v>
+      <c r="J76">
+        <v>32015</v>
       </c>
       <c r="K76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3282,8 +3597,8 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="E77" t="n">
-        <v>-0.06078263337142273</v>
+      <c r="E77">
+        <v>-6.0782633371422728E-2</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -3297,14 +3612,14 @@
       <c r="I77" t="s">
         <v>19</v>
       </c>
-      <c r="J77" t="n">
-        <v>32015.0</v>
+      <c r="J77">
+        <v>32015</v>
       </c>
       <c r="K77" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3317,8 +3632,8 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="E78" t="n">
-        <v>-0.02390930426085994</v>
+      <c r="E78">
+        <v>-2.3909304260859941E-2</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -3332,14 +3647,14 @@
       <c r="I78" t="s">
         <v>19</v>
       </c>
-      <c r="J78" t="n">
-        <v>32015.0</v>
+      <c r="J78">
+        <v>32015</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3352,8 +3667,8 @@
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79" t="n">
-        <v>-0.06397812751597222</v>
+      <c r="E79">
+        <v>-6.3978127515972219E-2</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -3367,14 +3682,14 @@
       <c r="I79" t="s">
         <v>19</v>
       </c>
-      <c r="J79" t="n">
-        <v>32015.0</v>
+      <c r="J79">
+        <v>32015</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3387,8 +3702,8 @@
       <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.007480717633429364</v>
+      <c r="E80">
+        <v>7.4807176334293641E-3</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3402,14 +3717,14 @@
       <c r="I80" t="s">
         <v>19</v>
       </c>
-      <c r="J80" t="n">
-        <v>32015.0</v>
+      <c r="J80">
+        <v>32015</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3737,7 @@
       <c r="D81" t="s">
         <v>16</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-0.14435235299948027</v>
       </c>
       <c r="F81" t="s">
@@ -3437,14 +3752,14 @@
       <c r="I81" t="s">
         <v>19</v>
       </c>
-      <c r="J81" t="n">
-        <v>32015.0</v>
+      <c r="J81">
+        <v>32015</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3457,8 +3772,8 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.04651342566960746</v>
+      <c r="E82">
+        <v>4.6513425669607457E-2</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -3472,14 +3787,14 @@
       <c r="I82" t="s">
         <v>19</v>
       </c>
-      <c r="J82" t="n">
-        <v>32015.0</v>
+      <c r="J82">
+        <v>32015</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3492,8 +3807,8 @@
       <c r="D83" t="s">
         <v>16</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.005401473530344838</v>
+      <c r="E83">
+        <v>5.4014735303448379E-3</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -3507,27 +3822,27 @@
       <c r="I83" t="s">
         <v>19</v>
       </c>
-      <c r="J83" t="n">
-        <v>32015.0</v>
+      <c r="J83">
+        <v>32015</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3581,8 +3896,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.02070036147118188</v>
+      <c r="E2">
+        <v>-2.0700361471181879E-2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3596,20 +3911,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.06544733884742245</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.02404661590505877</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32015.0</v>
+      <c r="J2">
+        <v>-6.5447338847422445E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.4046615905058771E-2</v>
+      </c>
+      <c r="L2">
+        <v>32015</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3622,8 +3937,8 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.06774927511086512</v>
+      <c r="E3">
+        <v>6.774927511086512E-2</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3637,20 +3952,20 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.023979984109237483</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>2.3979984109237483E-2</v>
+      </c>
+      <c r="K3">
         <v>0.11151856611249311</v>
       </c>
-      <c r="L3" t="n">
-        <v>32015.0</v>
+      <c r="L3">
+        <v>32015</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3663,8 +3978,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.046765251955286566</v>
+      <c r="E4">
+        <v>4.6765251955286566E-2</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -3678,20 +3993,20 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>-0.018315378253182003</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>-1.8315378253182003E-2</v>
+      </c>
+      <c r="K4">
         <v>0.11184588216375477</v>
       </c>
-      <c r="L4" t="n">
-        <v>32015.0</v>
+      <c r="L4">
+        <v>32015</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3704,8 +4019,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.05196627430012695</v>
+      <c r="E5">
+        <v>5.1966274300126951E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -3719,20 +4034,20 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.01079990848206984</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0931326401181839</v>
-      </c>
-      <c r="L5" t="n">
-        <v>32015.0</v>
+      <c r="J5">
+        <v>1.0799908482069839E-2</v>
+      </c>
+      <c r="K5">
+        <v>9.3132640118183896E-2</v>
+      </c>
+      <c r="L5">
+        <v>32015</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3745,7 +4060,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.32132604006865484</v>
       </c>
       <c r="F6" t="s">
@@ -3760,20 +4075,20 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.28027634140485275</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.3623757387324525</v>
-      </c>
-      <c r="L6" t="n">
-        <v>32015.0</v>
+      <c r="K6">
+        <v>0.36237573873245249</v>
+      </c>
+      <c r="L6">
+        <v>32015</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +4101,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.30582919599786484</v>
       </c>
       <c r="F7" t="s">
@@ -3801,20 +4116,20 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.2605709537328547</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>0.26057095373285472</v>
+      </c>
+      <c r="K7">
         <v>0.35108743826287364</v>
       </c>
-      <c r="L7" t="n">
-        <v>32015.0</v>
+      <c r="L7">
+        <v>32015</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3827,8 +4142,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.007218988690384468</v>
+      <c r="E8">
+        <v>7.2189886903844683E-3</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -3842,20 +4157,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
-        <v>-0.03327197988567864</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.04770995726644759</v>
-      </c>
-      <c r="L8" t="n">
-        <v>32015.0</v>
+      <c r="J8">
+        <v>-3.3271979885678642E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.770995726644759E-2</v>
+      </c>
+      <c r="L8">
+        <v>32015</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3868,8 +4183,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.07757928274017523</v>
+      <c r="E9">
+        <v>7.7579282740175226E-2</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -3883,20 +4198,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.03089582008951537</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>3.0895820089515372E-2</v>
+      </c>
+      <c r="K9">
         <v>0.12426274539083569</v>
       </c>
-      <c r="L9" t="n">
-        <v>32015.0</v>
+      <c r="L9">
+        <v>32015</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3909,8 +4224,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.017986517801016164</v>
+      <c r="E10">
+        <v>1.7986517801016164E-2</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -3924,20 +4239,20 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="n">
-        <v>-0.03015632828050199</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0661293638825345</v>
-      </c>
-      <c r="L10" t="n">
-        <v>32015.0</v>
+      <c r="J10">
+        <v>-3.0156328280501989E-2</v>
+      </c>
+      <c r="K10">
+        <v>6.61293638825345E-2</v>
+      </c>
+      <c r="L10">
+        <v>32015</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3950,8 +4265,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.03574625912748435</v>
+      <c r="E11">
+        <v>3.5746259127484352E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -3965,20 +4280,20 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="n">
-        <v>-0.040459812384751895</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11">
+        <v>-4.0459812384751895E-2</v>
+      </c>
+      <c r="K11">
         <v>0.11195233063972025</v>
       </c>
-      <c r="L11" t="n">
-        <v>32015.0</v>
+      <c r="L11">
+        <v>32015</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3991,7 +4306,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-0.10994005513652809</v>
       </c>
       <c r="F12" t="s">
@@ -4006,20 +4321,20 @@
       <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>-0.17183524100234798</v>
       </c>
-      <c r="K12" t="n">
-        <v>-0.04804486927070879</v>
-      </c>
-      <c r="L12" t="n">
-        <v>32015.0</v>
+      <c r="K12">
+        <v>-4.8044869270708793E-2</v>
+      </c>
+      <c r="L12">
+        <v>32015</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4032,7 +4347,7 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-0.13976023167429744</v>
       </c>
       <c r="F13" t="s">
@@ -4047,20 +4362,20 @@
       <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-0.19531724878081747</v>
       </c>
-      <c r="K13" t="n">
-        <v>-0.08420321456777656</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32015.0</v>
+      <c r="K13">
+        <v>-8.420321456777656E-2</v>
+      </c>
+      <c r="L13">
+        <v>32015</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +4388,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.11487793536466046</v>
       </c>
       <c r="F14" t="s">
@@ -4088,20 +4403,20 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="n">
-        <v>-0.1962597320908115</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.03349613863850828</v>
-      </c>
-      <c r="L14" t="n">
-        <v>32015.0</v>
+      <c r="J14">
+        <v>-0.19625973209081149</v>
+      </c>
+      <c r="K14">
+        <v>-3.3496138638508283E-2</v>
+      </c>
+      <c r="L14">
+        <v>32015</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4114,7 +4429,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-0.16836574689676584</v>
       </c>
       <c r="F15" t="s">
@@ -4129,20 +4444,20 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-0.21981383937913934</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>-0.11691765441439522</v>
       </c>
-      <c r="L15" t="n">
-        <v>32015.0</v>
+      <c r="L15">
+        <v>32015</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4155,7 +4470,7 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-0.15534810257732024</v>
       </c>
       <c r="F16" t="s">
@@ -4170,20 +4485,20 @@
       <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="n">
-        <v>-0.2039891016720911</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16">
+        <v>-0.20398910167209111</v>
+      </c>
+      <c r="K16">
         <v>-0.10670710348255075</v>
       </c>
-      <c r="L16" t="n">
-        <v>32015.0</v>
+      <c r="L16">
+        <v>32015</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4196,8 +4511,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>-0.07378773929765307</v>
+      <c r="E17">
+        <v>-7.3787739297653074E-2</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4211,20 +4526,20 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-0.13196395090238802</v>
       </c>
-      <c r="K17" t="n">
-        <v>-0.015611527692916821</v>
-      </c>
-      <c r="L17" t="n">
-        <v>32015.0</v>
+      <c r="K17">
+        <v>-1.5611527692916821E-2</v>
+      </c>
+      <c r="L17">
+        <v>32015</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4237,8 +4552,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>-0.0935596838687777</v>
+      <c r="E18">
+        <v>-9.3559683868777693E-2</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -4252,20 +4567,20 @@
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>-0.1462974947704275</v>
       </c>
-      <c r="K18" t="n">
-        <v>-0.0408218729671258</v>
-      </c>
-      <c r="L18" t="n">
-        <v>32015.0</v>
+      <c r="K18">
+        <v>-4.0821872967125798E-2</v>
+      </c>
+      <c r="L18">
+        <v>32015</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4278,7 +4593,7 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-0.11194435353037856</v>
       </c>
       <c r="F19" t="s">
@@ -4293,20 +4608,20 @@
       <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-0.16085888238797968</v>
       </c>
-      <c r="K19" t="n">
-        <v>-0.06302982467277782</v>
-      </c>
-      <c r="L19" t="n">
-        <v>32015.0</v>
+      <c r="K19">
+        <v>-6.3029824672777818E-2</v>
+      </c>
+      <c r="L19">
+        <v>32015</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4319,8 +4634,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
-        <v>-0.1419116458173285</v>
+      <c r="E20">
+        <v>-0.14191164581732851</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -4334,20 +4649,20 @@
       <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>-0.20673377960562545</v>
       </c>
-      <c r="K20" t="n">
-        <v>-0.07708951202903265</v>
-      </c>
-      <c r="L20" t="n">
-        <v>32015.0</v>
+      <c r="K20">
+        <v>-7.708951202903265E-2</v>
+      </c>
+      <c r="L20">
+        <v>32015</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4360,8 +4675,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="n">
-        <v>-0.02384407852686269</v>
+      <c r="E21">
+        <v>-2.384407852686269E-2</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -4375,20 +4690,20 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="n">
-        <v>-0.08424748077358017</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.036559323719854875</v>
-      </c>
-      <c r="L21" t="n">
-        <v>32015.0</v>
+      <c r="J21">
+        <v>-8.4247480773580172E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.6559323719854875E-2</v>
+      </c>
+      <c r="L21">
+        <v>32015</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4401,8 +4716,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.02346326357438398</v>
+      <c r="E22">
+        <v>2.3463263574383979E-2</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -4416,20 +4731,20 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" t="n">
-        <v>-0.03850445911002033</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.08543098625878856</v>
-      </c>
-      <c r="L22" t="n">
-        <v>32015.0</v>
+      <c r="J22">
+        <v>-3.8504459110020331E-2</v>
+      </c>
+      <c r="K22">
+        <v>8.543098625878856E-2</v>
+      </c>
+      <c r="L22">
+        <v>32015</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4442,7 +4757,7 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-0.21620946753966913</v>
       </c>
       <c r="F23" t="s">
@@ -4457,20 +4772,20 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>-0.26170810215915824</v>
       </c>
-      <c r="K23" t="n">
-        <v>-0.1707108329201797</v>
-      </c>
-      <c r="L23" t="n">
-        <v>32015.0</v>
+      <c r="K23">
+        <v>-0.17071083292017969</v>
+      </c>
+      <c r="L23">
+        <v>32015</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4483,8 +4798,8 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.07421207903242046</v>
+      <c r="E24">
+        <v>-7.4212079032420455E-2</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -4498,20 +4813,20 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24" t="n">
-        <v>-0.1552943157091567</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.006870157644316782</v>
-      </c>
-      <c r="L24" t="n">
-        <v>32015.0</v>
+      <c r="J24">
+        <v>-0.15529431570915669</v>
+      </c>
+      <c r="K24">
+        <v>6.8701576443167822E-3</v>
+      </c>
+      <c r="L24">
+        <v>32015</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4524,7 +4839,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-0.14005840163535213</v>
       </c>
       <c r="F25" t="s">
@@ -4539,20 +4854,20 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>-0.19283740735514068</v>
       </c>
-      <c r="K25" t="n">
-        <v>-0.0872793959155633</v>
-      </c>
-      <c r="L25" t="n">
-        <v>32015.0</v>
+      <c r="K25">
+        <v>-8.7279395915563301E-2</v>
+      </c>
+      <c r="L25">
+        <v>32015</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4565,8 +4880,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.015099613400860717</v>
+      <c r="E26">
+        <v>1.5099613400860717E-2</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -4580,20 +4895,20 @@
       <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="J26" t="n">
-        <v>-0.06570386636573339</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.09590309316745496</v>
-      </c>
-      <c r="L26" t="n">
-        <v>32015.0</v>
+      <c r="J26">
+        <v>-6.5703866365733388E-2</v>
+      </c>
+      <c r="K26">
+        <v>9.5903093167454961E-2</v>
+      </c>
+      <c r="L26">
+        <v>32015</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4606,8 +4921,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.085552565920258</v>
+      <c r="E27">
+        <v>-8.5552565920258006E-2</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -4621,20 +4936,20 @@
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>-0.1356116672214725</v>
       </c>
-      <c r="K27" t="n">
-        <v>-0.035493464619045206</v>
-      </c>
-      <c r="L27" t="n">
-        <v>32015.0</v>
+      <c r="K27">
+        <v>-3.5493464619045206E-2</v>
+      </c>
+      <c r="L27">
+        <v>32015</v>
       </c>
       <c r="M27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4647,8 +4962,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
-        <v>-0.021681214769173656</v>
+      <c r="E28">
+        <v>-2.1681214769173656E-2</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -4662,20 +4977,20 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28" t="n">
-        <v>-0.07412637649447971</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.030763946956132476</v>
-      </c>
-      <c r="L28" t="n">
-        <v>32015.0</v>
+      <c r="J28">
+        <v>-7.4126376494479715E-2</v>
+      </c>
+      <c r="K28">
+        <v>3.0763946956132476E-2</v>
+      </c>
+      <c r="L28">
+        <v>32015</v>
       </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4688,7 +5003,7 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-0.18559722478154753</v>
       </c>
       <c r="F29" t="s">
@@ -4703,20 +5018,20 @@
       <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>-0.23644174760837</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-0.13475270195472278</v>
       </c>
-      <c r="L29" t="n">
-        <v>32015.0</v>
+      <c r="L29">
+        <v>32015</v>
       </c>
       <c r="M29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4729,8 +5044,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>-0.09417407890325295</v>
+      <c r="E30">
+        <v>-9.4174078903252953E-2</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -4744,20 +5059,20 @@
       <c r="I30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="n">
-        <v>-0.1476830059982781</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-0.04066515180822848</v>
-      </c>
-      <c r="L30" t="n">
-        <v>32015.0</v>
+      <c r="J30">
+        <v>-0.14768300599827811</v>
+      </c>
+      <c r="K30">
+        <v>-4.0665151808228481E-2</v>
+      </c>
+      <c r="L30">
+        <v>32015</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4770,8 +5085,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="n">
-        <v>-0.05270129976092141</v>
+      <c r="E31">
+        <v>-5.2701299760921409E-2</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -4785,20 +5100,20 @@
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>-0.11679341352408756</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.01139081400224514</v>
-      </c>
-      <c r="L31" t="n">
-        <v>32015.0</v>
+      <c r="K31">
+        <v>1.1390814002245141E-2</v>
+      </c>
+      <c r="L31">
+        <v>32015</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4811,8 +5126,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>-0.052138543483863146</v>
+      <c r="E32">
+        <v>-5.2138543483863146E-2</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -4826,20 +5141,20 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>-0.11555767543084364</v>
       </c>
-      <c r="K32" t="n">
-        <v>0.011280588463116276</v>
-      </c>
-      <c r="L32" t="n">
-        <v>32015.0</v>
+      <c r="K32">
+        <v>1.1280588463116276E-2</v>
+      </c>
+      <c r="L32">
+        <v>32015</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4852,7 +5167,7 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.11410902783396851</v>
       </c>
       <c r="F33" t="s">
@@ -4867,20 +5182,20 @@
       <c r="I33" t="s">
         <v>18</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.03510768791076409</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33">
+        <v>3.5107687910764088E-2</v>
+      </c>
+      <c r="K33">
         <v>0.193110367757173</v>
       </c>
-      <c r="L33" t="n">
-        <v>32015.0</v>
+      <c r="L33">
+        <v>32015</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4893,7 +5208,7 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-0.1103624950692035</v>
       </c>
       <c r="F34" t="s">
@@ -4908,20 +5223,20 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>-0.16153504684431452</v>
       </c>
-      <c r="K34" t="n">
-        <v>-0.059189943294093286</v>
-      </c>
-      <c r="L34" t="n">
-        <v>32015.0</v>
+      <c r="K34">
+        <v>-5.9189943294093286E-2</v>
+      </c>
+      <c r="L34">
+        <v>32015</v>
       </c>
       <c r="M34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +5249,7 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-0.12163825769320231</v>
       </c>
       <c r="F35" t="s">
@@ -4949,20 +5264,20 @@
       <c r="I35" t="s">
         <v>18</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>-0.18122193274597498</v>
       </c>
-      <c r="K35" t="n">
-        <v>-0.062054582640429144</v>
-      </c>
-      <c r="L35" t="n">
-        <v>32015.0</v>
+      <c r="K35">
+        <v>-6.2054582640429144E-2</v>
+      </c>
+      <c r="L35">
+        <v>32015</v>
       </c>
       <c r="M35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4975,8 +5290,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>-0.0926875663087881</v>
+      <c r="E36">
+        <v>-9.2687566308788105E-2</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -4990,20 +5305,20 @@
       <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>-0.1926994065621932</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.007324273944616502</v>
-      </c>
-      <c r="L36" t="n">
-        <v>32015.0</v>
+      <c r="K36">
+        <v>7.3242739446165023E-3</v>
+      </c>
+      <c r="L36">
+        <v>32015</v>
       </c>
       <c r="M36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -5016,7 +5331,7 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-0.1310601443174054</v>
       </c>
       <c r="F37" t="s">
@@ -5031,20 +5346,20 @@
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>-0.19365471414755364</v>
       </c>
-      <c r="K37" t="n">
-        <v>-0.06846557448725753</v>
-      </c>
-      <c r="L37" t="n">
-        <v>32015.0</v>
+      <c r="K37">
+        <v>-6.8465574487257527E-2</v>
+      </c>
+      <c r="L37">
+        <v>32015</v>
       </c>
       <c r="M37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5057,8 +5372,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
-        <v>-0.09482570040351972</v>
+      <c r="E38">
+        <v>-9.4825700403519717E-2</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -5072,20 +5387,20 @@
       <c r="I38" t="s">
         <v>18</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>-0.14956727125885136</v>
       </c>
-      <c r="K38" t="n">
-        <v>-0.04008412954818868</v>
-      </c>
-      <c r="L38" t="n">
-        <v>32015.0</v>
+      <c r="K38">
+        <v>-4.0084129548188678E-2</v>
+      </c>
+      <c r="L38">
+        <v>32015</v>
       </c>
       <c r="M38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +5413,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-0.14024226010161792</v>
       </c>
       <c r="F39" t="s">
@@ -5113,20 +5428,20 @@
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>-0.2027043477537594</v>
       </c>
-      <c r="K39" t="n">
-        <v>-0.07778017244947748</v>
-      </c>
-      <c r="L39" t="n">
-        <v>32015.0</v>
+      <c r="K39">
+        <v>-7.7780172449477478E-2</v>
+      </c>
+      <c r="L39">
+        <v>32015</v>
       </c>
       <c r="M39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5139,7 +5454,7 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-0.15735244275653593</v>
       </c>
       <c r="F40" t="s">
@@ -5154,20 +5469,20 @@
       <c r="I40" t="s">
         <v>18</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>-0.2079822930261585</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-0.10672259248691246</v>
       </c>
-      <c r="L40" t="n">
-        <v>32015.0</v>
+      <c r="L40">
+        <v>32015</v>
       </c>
       <c r="M40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -5180,8 +5495,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.006078823198025182</v>
+      <c r="E41">
+        <v>6.0788231980251819E-3</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -5195,20 +5510,20 @@
       <c r="I41" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.0038791829193306512</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.008278463476719749</v>
-      </c>
-      <c r="L41" t="n">
-        <v>32015.0</v>
+      <c r="J41">
+        <v>3.8791829193306512E-3</v>
+      </c>
+      <c r="K41">
+        <v>8.2784634767197485E-3</v>
+      </c>
+      <c r="L41">
+        <v>32015</v>
       </c>
       <c r="M41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5221,8 +5536,8 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.04069613298148907</v>
+      <c r="E42">
+        <v>4.0696132981489067E-2</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -5236,33 +5551,33 @@
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.03019886303890271</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.05119340292407526</v>
-      </c>
-      <c r="L42" t="n">
-        <v>32015.0</v>
+      <c r="J42">
+        <v>3.019886303890271E-2</v>
+      </c>
+      <c r="K42">
+        <v>5.119340292407526E-2</v>
+      </c>
+      <c r="L42">
+        <v>32015</v>
       </c>
       <c r="M42" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -5316,8 +5631,8 @@
       <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.00876931021614969</v>
+      <c r="E2">
+        <v>8.7693102161496908E-3</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -5331,20 +5646,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0010584597577420769</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.016480160674557313</v>
-      </c>
-      <c r="L2" t="n">
-        <v>825.0</v>
+      <c r="J2">
+        <v>1.0584597577420769E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.6480160674557313E-2</v>
+      </c>
+      <c r="L2">
+        <v>825</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5357,8 +5672,8 @@
       <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.002894363233405648</v>
+      <c r="E3">
+        <v>2.8943632334056482E-3</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5372,20 +5687,20 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="n">
-        <v>-0.0094685293112191</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.015257255778030393</v>
-      </c>
-      <c r="L3" t="n">
-        <v>586.0</v>
+      <c r="J3">
+        <v>-9.4685293112191007E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.5257255778030393E-2</v>
+      </c>
+      <c r="L3">
+        <v>586</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5398,8 +5713,8 @@
       <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.002715983757813249</v>
+      <c r="E4">
+        <v>-2.7159837578132492E-3</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5413,20 +5728,20 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>-0.00901171115723267</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0035797436416061664</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1573.0</v>
+      <c r="J4">
+        <v>-9.01171115723267E-3</v>
+      </c>
+      <c r="K4">
+        <v>3.5797436416061664E-3</v>
+      </c>
+      <c r="L4">
+        <v>1573</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5439,8 +5754,8 @@
       <c r="D5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.013043476588302596</v>
+      <c r="E5">
+        <v>-1.3043476588302596E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -5454,20 +5769,20 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.032941368255044005</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.006854415078438819</v>
-      </c>
-      <c r="L5" t="n">
-        <v>173.0</v>
+      <c r="J5">
+        <v>-3.2941368255044005E-2</v>
+      </c>
+      <c r="K5">
+        <v>6.8544150784388188E-3</v>
+      </c>
+      <c r="L5">
+        <v>173</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -5480,8 +5795,8 @@
       <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.0018908778341861635</v>
+      <c r="E6">
+        <v>-1.8908778341861635E-3</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -5495,20 +5810,20 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="n">
-        <v>-0.005278191161669526</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0014964354932971993</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4829.0</v>
+      <c r="J6">
+        <v>-5.2781911616695256E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.4964354932971993E-3</v>
+      </c>
+      <c r="L6">
+        <v>4829</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5521,8 +5836,8 @@
       <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.0036680597492950336</v>
+      <c r="E7">
+        <v>3.6680597492950336E-3</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -5536,20 +5851,20 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>6.6308172455193E-4</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.006673037774038079</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11215.0</v>
+      <c r="K7">
+        <v>6.673037774038079E-3</v>
+      </c>
+      <c r="L7">
+        <v>11215</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -5562,8 +5877,8 @@
       <c r="D8" t="s">
         <v>110</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.0017424286946593542</v>
+      <c r="E8">
+        <v>1.7424286946593542E-3</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -5577,20 +5892,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
-        <v>-0.005381322543070453</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.008866179932389168</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2027.0</v>
+      <c r="J8">
+        <v>-5.3813225430704532E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.8661799323891677E-3</v>
+      </c>
+      <c r="L8">
+        <v>2027</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -5603,8 +5918,8 @@
       <c r="D9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.005077066889975021</v>
+      <c r="E9">
+        <v>-5.0770668899750206E-3</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -5618,20 +5933,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>-0.007045643463779462</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.0031084903161705557</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9425.0</v>
+      <c r="J9">
+        <v>-7.0456434637794618E-3</v>
+      </c>
+      <c r="K9">
+        <v>-3.1084903161705557E-3</v>
+      </c>
+      <c r="L9">
+        <v>9425</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5644,8 +5959,8 @@
       <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.006578028240524449</v>
+      <c r="E10">
+        <v>6.578028240524449E-3</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -5659,33 +5974,35 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="n">
-        <v>-9.603016262207682E-5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.013252086643670953</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1362.0</v>
+      <c r="J10">
+        <v>-9.6030162622076816E-5</v>
+      </c>
+      <c r="K10">
+        <v>1.3252086643670953E-2</v>
+      </c>
+      <c r="L10">
+        <v>1362</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="A1:L33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5726,7 +6043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5737,37 +6054,37 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.001328226534761028</v>
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>4.9933538338607281E-2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.02782328369847815</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.025166830628956093</v>
-      </c>
-      <c r="L2" t="n">
-        <v>663.0</v>
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>2.4755090309635207E-2</v>
+      </c>
+      <c r="K2">
+        <v>7.511198636757932E-2</v>
+      </c>
+      <c r="L2">
+        <v>570</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -5778,37 +6095,37 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.9317029156975785E-4</v>
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>4.9871596403314192E-2</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.005940442229231801</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.006526782812371316</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2482.0</v>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>1.7035533158692849E-2</v>
+      </c>
+      <c r="K3">
+        <v>8.2707659647935611E-2</v>
+      </c>
+      <c r="L3">
+        <v>436</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -5819,10 +6136,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04987159640331419</v>
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>2.472540056973636E-2</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5834,22 +6151,22 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01703553315869285</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08270765964793561</v>
-      </c>
-      <c r="L4" t="n">
-        <v>436.0</v>
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>5.1254600229831311E-3</v>
+      </c>
+      <c r="K4">
+        <v>4.4325341116489572E-2</v>
+      </c>
+      <c r="L4">
+        <v>879</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5860,37 +6177,37 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.015468348683758496</v>
+        <v>145</v>
+      </c>
+      <c r="E5">
+        <v>2.3575505810775547E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.04162657054938688</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.010689873181869905</v>
-      </c>
-      <c r="L5" t="n">
-        <v>367.0</v>
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>1.6641088627635178E-2</v>
+      </c>
+      <c r="K5">
+        <v>3.0509922993915924E-2</v>
+      </c>
+      <c r="L5">
+        <v>1006</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5901,37 +6218,37 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.0024355683817285784</v>
+        <v>126</v>
+      </c>
+      <c r="E6">
+        <v>2.1859547506782137E-2</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="n">
-        <v>-0.02148881911890817</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.016617682355451014</v>
-      </c>
-      <c r="L6" t="n">
-        <v>629.0</v>
+      <c r="J6">
+        <v>3.2218833234848102E-3</v>
+      </c>
+      <c r="K6">
+        <v>4.0497211690079471E-2</v>
+      </c>
+      <c r="L6">
+        <v>796</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -5942,10 +6259,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0936354087929353E-4</v>
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>2.1172896286719336E-2</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -5959,20 +6276,20 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
-        <v>-0.030318294927853873</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.03053702200961246</v>
-      </c>
-      <c r="L7" t="n">
-        <v>312.0</v>
+      <c r="J7">
+        <v>-7.7252577219161858E-3</v>
+      </c>
+      <c r="K7">
+        <v>5.0071050295354878E-2</v>
+      </c>
+      <c r="L7">
+        <v>372</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5983,16 +6300,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.014434174051575294</v>
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>1.9423162080532783E-2</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -6000,20 +6317,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
-        <v>-0.03106419577076576</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.002195847667615188</v>
-      </c>
-      <c r="L8" t="n">
-        <v>761.0</v>
+      <c r="J8">
+        <v>-5.0259122618938473E-3</v>
+      </c>
+      <c r="K8">
+        <v>4.387223642295944E-2</v>
+      </c>
+      <c r="L8">
+        <v>373</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6026,8 +6343,8 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.01754334597392475</v>
+      <c r="E9">
+        <v>1.7543345973924752E-2</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -6041,20 +6358,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.013520480228352769</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.021566211719496742</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1941.0</v>
+      <c r="J9">
+        <v>1.3520480228352769E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.1566211719496742E-2</v>
+      </c>
+      <c r="L9">
+        <v>1941</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -6065,37 +6382,37 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.015295231445075773</v>
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>1.7178872964022797E-2</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-0.03376465835240952</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0031741954622579276</v>
-      </c>
-      <c r="L10" t="n">
-        <v>895.0</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>8.8082323027330097E-3</v>
+      </c>
+      <c r="K10">
+        <v>2.5549513625312555E-2</v>
+      </c>
+      <c r="L10">
+        <v>901</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6106,10 +6423,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.00626229645745428</v>
+        <v>136</v>
+      </c>
+      <c r="E11">
+        <v>1.5110526922642503E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -6123,20 +6440,20 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="n">
-        <v>-0.01568572967705444</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0031611367621458735</v>
-      </c>
-      <c r="L11" t="n">
-        <v>951.0</v>
+      <c r="J11">
+        <v>-6.9504758235157723E-3</v>
+      </c>
+      <c r="K11">
+        <v>3.717152966880076E-2</v>
+      </c>
+      <c r="L11">
+        <v>643</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -6147,10 +6464,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.010645812207232262</v>
+        <v>143</v>
+      </c>
+      <c r="E12">
+        <v>1.4707784189976638E-2</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -6159,25 +6476,25 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="n">
-        <v>-0.0214142203489858</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.2259593452128986E-4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1279.0</v>
+      <c r="J12">
+        <v>1.1276436678770048E-4</v>
+      </c>
+      <c r="K12">
+        <v>2.9302804013165588E-2</v>
+      </c>
+      <c r="L12">
+        <v>864</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6190,8 +6507,8 @@
       <c r="D13" t="s">
         <v>125</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.011958607071179031</v>
+      <c r="E13">
+        <v>1.1958607071179031E-2</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -6205,20 +6522,20 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="n">
-        <v>-0.008545188894275203</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.03246240303663325</v>
-      </c>
-      <c r="L13" t="n">
-        <v>582.0</v>
+      <c r="J13">
+        <v>-8.5451888942752029E-3</v>
+      </c>
+      <c r="K13">
+        <v>3.2462403036633253E-2</v>
+      </c>
+      <c r="L13">
+        <v>582</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6229,37 +6546,37 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.021859547506782137</v>
+        <v>141</v>
+      </c>
+      <c r="E14">
+        <v>5.3914881984691559E-3</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.00322188332348481</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.04049721169007947</v>
-      </c>
-      <c r="L14" t="n">
-        <v>796.0</v>
+      <c r="J14">
+        <v>-2.5174293430418819E-2</v>
+      </c>
+      <c r="K14">
+        <v>3.5957269827357127E-2</v>
+      </c>
+      <c r="L14">
+        <v>372</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6270,37 +6587,37 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.02472540056973636</v>
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>1.0854801396207104E-3</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.005125460022983131</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.04432534111648957</v>
-      </c>
-      <c r="L15" t="n">
-        <v>879.0</v>
+      <c r="J15">
+        <v>-1.7082482795975728E-3</v>
+      </c>
+      <c r="K15">
+        <v>3.8792085588389958E-3</v>
+      </c>
+      <c r="L15">
+        <v>6288</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6311,10 +6628,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0010854801396207104</v>
+        <v>134</v>
+      </c>
+      <c r="E16">
+        <v>5.9567686297789765E-4</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -6328,20 +6645,20 @@
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>-0.0017082482795975728</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.003879208558838996</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6288.0</v>
+      <c r="J16">
+        <v>-1.2248935308835932E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.344028903479173E-2</v>
+      </c>
+      <c r="L16">
+        <v>1022</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6352,10 +6669,10 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.019423162080532783</v>
+        <v>115</v>
+      </c>
+      <c r="E17">
+        <v>2.9317029156975785E-4</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -6369,20 +6686,20 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="n">
-        <v>-0.005025912261893847</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.04387223642295944</v>
-      </c>
-      <c r="L17" t="n">
-        <v>373.0</v>
+      <c r="J17">
+        <v>-5.9404422292318008E-3</v>
+      </c>
+      <c r="K17">
+        <v>6.5267828123713161E-3</v>
+      </c>
+      <c r="L17">
+        <v>2482</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -6393,10 +6710,10 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.00138298941743659</v>
+        <v>119</v>
+      </c>
+      <c r="E18">
+        <v>1.0936354087929353E-4</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -6410,20 +6727,20 @@
       <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="n">
-        <v>-0.008795066420354604</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.006029087585481425</v>
-      </c>
-      <c r="L18" t="n">
-        <v>886.0</v>
+      <c r="J18">
+        <v>-3.0318294927853873E-2</v>
+      </c>
+      <c r="K18">
+        <v>3.0537022009612461E-2</v>
+      </c>
+      <c r="L18">
+        <v>312</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6434,10 +6751,10 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.021172896286719336</v>
+        <v>114</v>
+      </c>
+      <c r="E19">
+        <v>-1.3282265347610281E-3</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -6451,20 +6768,20 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19" t="n">
-        <v>-0.007725257721916186</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.05007105029535488</v>
-      </c>
-      <c r="L19" t="n">
-        <v>372.0</v>
+      <c r="J19">
+        <v>-2.7823283698478151E-2</v>
+      </c>
+      <c r="K19">
+        <v>2.5166830628956093E-2</v>
+      </c>
+      <c r="L19">
+        <v>663</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -6475,10 +6792,10 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.0017391866134494542</v>
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>-1.3829894174365899E-3</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -6492,20 +6809,20 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="n">
-        <v>-0.01345056784686842</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.009972194619969513</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1286.0</v>
+      <c r="J20">
+        <v>-8.7950664203546042E-3</v>
+      </c>
+      <c r="K20">
+        <v>6.0290875854814253E-3</v>
+      </c>
+      <c r="L20">
+        <v>886</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6516,37 +6833,37 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.017178872964022797</v>
+        <v>132</v>
+      </c>
+      <c r="E21">
+        <v>-1.7391866134494542E-3</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.00880823230273301</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.025549513625312555</v>
-      </c>
-      <c r="L21" t="n">
-        <v>901.0</v>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>-1.3450567846868419E-2</v>
+      </c>
+      <c r="K21">
+        <v>9.9721946199695134E-3</v>
+      </c>
+      <c r="L21">
+        <v>1286</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6557,10 +6874,10 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.956768629778976E-4</v>
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <v>-2.4355683817285784E-3</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -6574,20 +6891,20 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" t="n">
-        <v>-0.012248935308835932</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.01344028903479173</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1022.0</v>
+      <c r="J22">
+        <v>-2.1488819118908171E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.6617682355451014E-2</v>
+      </c>
+      <c r="L22">
+        <v>629</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6598,37 +6915,37 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.019508962461107716</v>
+        <v>139</v>
+      </c>
+      <c r="E23">
+        <v>-5.4074128138950316E-3</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
       </c>
-      <c r="J23" t="n">
-        <v>-0.03815081036197086</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-8.671145602445716E-4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>775.0</v>
+      <c r="J23">
+        <v>-1.9053509542245287E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.23868391445522E-3</v>
+      </c>
+      <c r="L23">
+        <v>1684</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -6639,10 +6956,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.015110526922642503</v>
+        <v>123</v>
+      </c>
+      <c r="E24">
+        <v>-6.2622964574542798E-3</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -6656,20 +6973,20 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24" t="n">
-        <v>-0.006950475823515772</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.03717152966880076</v>
-      </c>
-      <c r="L24" t="n">
-        <v>643.0</v>
+      <c r="J24">
+        <v>-1.5685729677054439E-2</v>
+      </c>
+      <c r="K24">
+        <v>3.1611367621458735E-3</v>
+      </c>
+      <c r="L24">
+        <v>951</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6680,16 +6997,16 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.02043114269249268</v>
+        <v>124</v>
+      </c>
+      <c r="E25">
+        <v>-1.0645812207232262E-2</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -6697,20 +7014,20 @@
       <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="J25" t="n">
-        <v>-0.04718618494386443</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.006323899558879069</v>
-      </c>
-      <c r="L25" t="n">
-        <v>583.0</v>
+      <c r="J25">
+        <v>-2.14142203489858E-2</v>
+      </c>
+      <c r="K25">
+        <v>1.2259593452128986E-4</v>
+      </c>
+      <c r="L25">
+        <v>1279</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6721,37 +7038,37 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.04993353833860728</v>
+        <v>140</v>
+      </c>
+      <c r="E26">
+        <v>-1.2416444462769242E-2</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.024755090309635207</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.07511198636757932</v>
-      </c>
-      <c r="L26" t="n">
-        <v>570.0</v>
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>-3.1543215679050593E-2</v>
+      </c>
+      <c r="K26">
+        <v>6.7103267535121251E-3</v>
+      </c>
+      <c r="L26">
+        <v>669</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -6762,16 +7079,16 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.0054074128138950316</v>
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>-1.4434174051575294E-2</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -6779,20 +7096,20 @@
       <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="J27" t="n">
-        <v>-0.019053509542245287</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.00823868391445522</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1684.0</v>
+      <c r="J27">
+        <v>-3.106419577076576E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.1958476676151879E-3</v>
+      </c>
+      <c r="L27">
+        <v>761</v>
       </c>
       <c r="M27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6803,10 +7120,10 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.012416444462769242</v>
+        <v>122</v>
+      </c>
+      <c r="E28">
+        <v>-1.5295231445075773E-2</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -6820,20 +7137,20 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28" t="n">
-        <v>-0.03154321567905059</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.006710326753512125</v>
-      </c>
-      <c r="L28" t="n">
-        <v>669.0</v>
+      <c r="J28">
+        <v>-3.3764658352409521E-2</v>
+      </c>
+      <c r="K28">
+        <v>3.1741954622579276E-3</v>
+      </c>
+      <c r="L28">
+        <v>895</v>
       </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -6844,10 +7161,10 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.005391488198469156</v>
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>-1.530449087167637E-2</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -6861,20 +7178,20 @@
       <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="J29" t="n">
-        <v>-0.02517429343041882</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.03595726982735713</v>
-      </c>
-      <c r="L29" t="n">
-        <v>372.0</v>
+      <c r="J29">
+        <v>-4.0580120761883554E-2</v>
+      </c>
+      <c r="K29">
+        <v>9.9711390185307398E-3</v>
+      </c>
+      <c r="L29">
+        <v>499</v>
       </c>
       <c r="M29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6885,10 +7202,10 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.01530449087167637</v>
+        <v>117</v>
+      </c>
+      <c r="E30">
+        <v>-1.5468348683758496E-2</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -6902,20 +7219,20 @@
       <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="J30" t="n">
-        <v>-0.040580120761883554</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.00997113901853074</v>
-      </c>
-      <c r="L30" t="n">
-        <v>499.0</v>
+      <c r="J30">
+        <v>-4.1626570549386878E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.0689873181869905E-2</v>
+      </c>
+      <c r="L30">
+        <v>367</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -6926,10 +7243,10 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.014707784189976638</v>
+        <v>144</v>
+      </c>
+      <c r="E31">
+        <v>-1.9072363068173719E-2</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -6938,25 +7255,25 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.1276436678770048E-4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.02930280401316559</v>
-      </c>
-      <c r="L31" t="n">
-        <v>864.0</v>
+      <c r="J31">
+        <v>-3.9961526085023763E-2</v>
+      </c>
+      <c r="K31">
+        <v>1.8167999486762912E-3</v>
+      </c>
+      <c r="L31">
+        <v>294</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6967,10 +7284,10 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.01907236306817372</v>
+        <v>135</v>
+      </c>
+      <c r="E32">
+        <v>-1.9508962461107716E-2</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -6979,25 +7296,25 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32" t="n">
-        <v>-0.03996152608502376</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0018167999486762912</v>
-      </c>
-      <c r="L32" t="n">
-        <v>294.0</v>
+      <c r="J32">
+        <v>-3.8150810361970863E-2</v>
+      </c>
+      <c r="K32">
+        <v>-8.6711456024457165E-4</v>
+      </c>
+      <c r="L32">
+        <v>775</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -7008,50 +7325,53 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.023575505810775547</v>
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>-2.0431142692492681E-2</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.01664108862763518</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.030509922993915924</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1006.0</v>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>-4.718618494386443E-2</v>
+      </c>
+      <c r="K33">
+        <v>6.3238995588790689E-3</v>
+      </c>
+      <c r="L33">
+        <v>583</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+    <sortCondition descending="1" ref="E2:E33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7092,7 +7412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -7105,8 +7425,8 @@
       <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.002704180071111256</v>
+      <c r="E2">
+        <v>-2.7041800711112558E-3</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7120,20 +7440,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.006112914303479891</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.045541612573825E-4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6574.0</v>
+      <c r="J2">
+        <v>-6.1129143034798911E-3</v>
+      </c>
+      <c r="K2">
+        <v>7.0455416125738248E-4</v>
+      </c>
+      <c r="L2">
+        <v>6574</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7146,8 +7466,8 @@
       <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="n">
-        <v>-9.636401886665206E-4</v>
+      <c r="E3">
+        <v>-9.6364018866652065E-4</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -7161,25 +7481,34 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="n">
-        <v>-0.0027120549505512902</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.847745732182493E-4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25486.0</v>
+      <c r="J3">
+        <v>-2.7120549505512902E-3</v>
+      </c>
+      <c r="K3">
+        <v>7.8477457321824925E-4</v>
+      </c>
+      <c r="L3">
+        <v>25486</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -7422,19 +7751,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B41B06-2D60-4E9E-B21F-DB1C56680EE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA41605-E73D-4584-B6B4-0946931FAE18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA41605-E73D-4584-B6B4-0946931FAE18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B41B06-2D60-4E9E-B21F-DB1C56680EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Hypothesis/Output/Detenciones/Tipo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3C251B5610DA0632F8CF9FC34F85F017CE4AA699" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38255BBB-2E9B-6C49-9E43-91D213033AC3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Generales" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultados Generales (modelo fu" sheetId="2" r:id="rId2"/>
-    <sheet name="Resultados Generales (efectos m" sheetId="3" r:id="rId3"/>
-    <sheet name="Por Corporacion_grupos" sheetId="4" r:id="rId4"/>
-    <sheet name="Por Estado" sheetId="5" r:id="rId5"/>
-    <sheet name="Por Sexo" sheetId="6" r:id="rId6"/>
+    <sheet name="Resultados Generales" r:id="rId3" sheetId="1"/>
+    <sheet name="Resultados Generales (modelo fu" r:id="rId4" sheetId="2"/>
+    <sheet name="Resultados Generales (efectos m" r:id="rId5" sheetId="3"/>
+    <sheet name="Por Corporacion_grupos" r:id="rId6" sheetId="4"/>
+    <sheet name="Por Estado" r:id="rId7" sheetId="5"/>
+    <sheet name="Por Sexo" r:id="rId8" sheetId="6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -477,10 +469,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,7 +485,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -510,326 +503,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -883,8 +568,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>-1.495420596303869E-3</v>
+      <c r="E2" t="n">
+        <v>-0.001495420596303869</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -898,33 +583,33 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>-3.0510553313184007E-3</v>
-      </c>
-      <c r="K2">
-        <v>6.0214138710688609E-5</v>
-      </c>
-      <c r="L2">
-        <v>32060</v>
+      <c r="J2" t="n">
+        <v>-0.0030510553313184007</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.021413871068861E-5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>32060.0</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -972,8 +657,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>-3.8277777302626208</v>
+      <c r="E2" t="n">
+        <v>-3.827777730262621</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -987,14 +672,14 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>32015</v>
+      <c r="J2" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +692,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.30591469903733176</v>
       </c>
       <c r="F3" t="s">
@@ -1022,14 +707,14 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>32015</v>
+      <c r="J3" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +727,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0.51660526659320805</v>
+      <c r="E4" t="n">
+        <v>0.516605266593208</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1057,14 +742,14 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>32015</v>
+      <c r="J4" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +762,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2.2523944783325187</v>
       </c>
       <c r="F5" t="s">
@@ -1092,14 +777,14 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
-        <v>32015</v>
+      <c r="J5" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +797,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2.3792520012878633</v>
       </c>
       <c r="F6" t="s">
@@ -1127,14 +812,14 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
-        <v>32015</v>
+      <c r="J6" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1147,8 +832,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>2.0285800998513932</v>
+      <c r="E7" t="n">
+        <v>2.028580099851393</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1162,14 +847,14 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
-        <v>32015</v>
+      <c r="J7" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1182,8 +867,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>3.4918313136473529</v>
+      <c r="E8" t="n">
+        <v>3.491831313647353</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1197,14 +882,14 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
-        <v>32015</v>
+      <c r="J8" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +902,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>3.4297140225266198</v>
+      <c r="E9" t="n">
+        <v>3.42971402252662</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1232,14 +917,14 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>32015</v>
+      <c r="J9" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +937,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>1.8103810208390765</v>
       </c>
       <c r="F10" t="s">
@@ -1267,14 +952,14 @@
       <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="J10">
-        <v>32015</v>
+      <c r="J10" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +972,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1.8898972227183555</v>
       </c>
       <c r="F11" t="s">
@@ -1302,14 +987,14 @@
       <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="J11">
-        <v>32015</v>
+      <c r="J11" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1007,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.2345614871731557</v>
       </c>
       <c r="F12" t="s">
@@ -1337,14 +1022,14 @@
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
-        <v>32015</v>
+      <c r="J12" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1042,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>-0.26894824115431198</v>
+      <c r="E13" t="n">
+        <v>-0.268948241154312</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1372,14 +1057,14 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13">
-        <v>32015</v>
+      <c r="J13" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1077,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-0.18181926664600537</v>
       </c>
       <c r="F14" t="s">
@@ -1407,14 +1092,14 @@
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
-        <v>32015</v>
+      <c r="J14" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1427,8 +1112,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>-0.67117960035081725</v>
+      <c r="E15" t="n">
+        <v>-0.6711796003508173</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1442,14 +1127,14 @@
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15">
-        <v>32015</v>
+      <c r="J15" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1462,8 +1147,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>-0.62083227988475675</v>
+      <c r="E16" t="n">
+        <v>-0.6208322798847568</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1477,14 +1162,14 @@
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16">
-        <v>32015</v>
+      <c r="J16" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1497,8 +1182,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>-0.42443071733123228</v>
+      <c r="E17" t="n">
+        <v>-0.4244307173312323</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1512,14 +1197,14 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17">
-        <v>32015</v>
+      <c r="J17" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1532,8 +1217,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>-1.2156712721795051</v>
+      <c r="E18" t="n">
+        <v>-1.215671272179505</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1547,14 +1232,14 @@
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18">
-        <v>32015</v>
+      <c r="J18" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1567,8 +1252,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>-3.6199079774367982E-2</v>
+      <c r="E19" t="n">
+        <v>-0.03619907977436798</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1582,14 +1267,14 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19">
-        <v>32015</v>
+      <c r="J19" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1602,8 +1287,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>-3.3277638523513578E-2</v>
+      <c r="E20" t="n">
+        <v>-0.03327763852351358</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1617,14 +1302,14 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20">
-        <v>32015</v>
+      <c r="J20" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1637,8 +1322,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>-6.6730600852270061E-2</v>
+      <c r="E21" t="n">
+        <v>-0.06673060085227006</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1652,14 +1337,14 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21">
-        <v>32015</v>
+      <c r="J21" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1672,8 +1357,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>-0.82675036841032401</v>
+      <c r="E22" t="n">
+        <v>-0.826750368410324</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1687,14 +1372,14 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>32015</v>
+      <c r="J22" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1707,8 +1392,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>-0.75912497198052076</v>
+      <c r="E23" t="n">
+        <v>-0.7591249719805208</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1722,14 +1407,14 @@
       <c r="I23" t="s">
         <v>19</v>
       </c>
-      <c r="J23">
-        <v>32015</v>
+      <c r="J23" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1427,7 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>-0.28326081502266875</v>
       </c>
       <c r="F24" t="s">
@@ -1757,14 +1442,14 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24">
-        <v>32015</v>
+      <c r="J24" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1462,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>-1.3767112608070986</v>
       </c>
       <c r="F25" t="s">
@@ -1792,14 +1477,14 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25">
-        <v>32015</v>
+      <c r="J25" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1812,8 +1497,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>-1.2181396973265199</v>
+      <c r="E26" t="n">
+        <v>-1.21813969732652</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1827,14 +1512,14 @@
       <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="J26">
-        <v>32015</v>
+      <c r="J26" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1847,8 +1532,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>-0.40176332007811572</v>
+      <c r="E27" t="n">
+        <v>-0.4017633200781157</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1862,14 +1547,14 @@
       <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="J27">
-        <v>32015</v>
+      <c r="J27" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1882,8 +1567,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
-        <v>-0.56044244593486447</v>
+      <c r="E28" t="n">
+        <v>-0.5604424459348645</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1897,14 +1582,14 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
-        <v>32015</v>
+      <c r="J28" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1602,7 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>-0.46951972498114997</v>
       </c>
       <c r="F29" t="s">
@@ -1932,14 +1617,14 @@
       <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="J29">
-        <v>32015</v>
+      <c r="J29" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1952,8 +1637,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>-9.0603083754114216E-2</v>
+      <c r="E30" t="n">
+        <v>-0.09060308375411422</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1967,14 +1652,14 @@
       <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="J30">
-        <v>32015</v>
+      <c r="J30" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1987,8 +1672,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31">
-        <v>-1.0530737891563799</v>
+      <c r="E31" t="n">
+        <v>-1.05307378915638</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2002,14 +1687,14 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31">
-        <v>32015</v>
+      <c r="J31" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2022,8 +1707,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>5.8159973304429454E-3</v>
+      <c r="E32" t="n">
+        <v>0.005815997330442945</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -2037,14 +1722,14 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32">
-        <v>32015</v>
+      <c r="J32" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2057,8 +1742,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>-0.58894466542753265</v>
+      <c r="E33" t="n">
+        <v>-0.5889446654275327</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2072,14 +1757,14 @@
       <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="J33">
-        <v>32015</v>
+      <c r="J33" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +1777,7 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>0.14411031820238343</v>
       </c>
       <c r="F34" t="s">
@@ -2107,14 +1792,14 @@
       <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="J34">
-        <v>32015</v>
+      <c r="J34" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2127,8 +1812,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
-        <v>0.41961195769853588</v>
+      <c r="E35" t="n">
+        <v>0.4196119576985359</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -2142,14 +1827,14 @@
       <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="J35">
-        <v>32015</v>
+      <c r="J35" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2162,8 +1847,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
-        <v>4.8276733090066942E-2</v>
+      <c r="E36" t="n">
+        <v>0.04827673309006694</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2177,14 +1862,14 @@
       <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="J36">
-        <v>32015</v>
+      <c r="J36" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +1882,7 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>-0.43980120566970654</v>
       </c>
       <c r="F37" t="s">
@@ -2212,14 +1897,14 @@
       <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="J37">
-        <v>32015</v>
+      <c r="J37" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2232,8 +1917,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
-        <v>-0.42813332900101331</v>
+      <c r="E38" t="n">
+        <v>-0.4281333290010133</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -2247,14 +1932,14 @@
       <c r="I38" t="s">
         <v>19</v>
       </c>
-      <c r="J38">
-        <v>32015</v>
+      <c r="J38" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +1952,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>-0.49004048952008966</v>
       </c>
       <c r="F39" t="s">
@@ -2282,14 +1967,14 @@
       <c r="I39" t="s">
         <v>19</v>
       </c>
-      <c r="J39">
-        <v>32015</v>
+      <c r="J39" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2302,8 +1987,8 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
-        <v>-0.59801247773194199</v>
+      <c r="E40" t="n">
+        <v>-0.598012477731942</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2317,14 +2002,14 @@
       <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="J40">
-        <v>32015</v>
+      <c r="J40" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2022,7 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>-0.17980939330115073</v>
       </c>
       <c r="F41" t="s">
@@ -2352,14 +2037,14 @@
       <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="J41">
-        <v>32015</v>
+      <c r="J41" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2057,7 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>-1.2435327518559574</v>
       </c>
       <c r="F42" t="s">
@@ -2387,14 +2072,14 @@
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42">
-        <v>32015</v>
+      <c r="J42" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2407,7 +2092,7 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>0.26525892911630455</v>
       </c>
       <c r="F43" t="s">
@@ -2422,14 +2107,14 @@
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43">
-        <v>32015</v>
+      <c r="J43" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2442,7 +2127,7 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>-0.13828176063967104</v>
       </c>
       <c r="F44" t="s">
@@ -2457,14 +2142,14 @@
       <c r="I44" t="s">
         <v>19</v>
       </c>
-      <c r="J44">
-        <v>32015</v>
+      <c r="J44" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2162,7 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>-0.26815653353842184</v>
       </c>
       <c r="F45" t="s">
@@ -2492,14 +2177,14 @@
       <c r="I45" t="s">
         <v>18</v>
       </c>
-      <c r="J45">
-        <v>32015</v>
+      <c r="J45" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2512,8 +2197,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46">
-        <v>-0.33661293808766829</v>
+      <c r="E46" t="n">
+        <v>-0.3366129380876683</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2527,14 +2212,14 @@
       <c r="I46" t="s">
         <v>19</v>
       </c>
-      <c r="J46">
-        <v>32015</v>
+      <c r="J46" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2547,8 +2232,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47">
-        <v>-0.25017609542673952</v>
+      <c r="E47" t="n">
+        <v>-0.2501760954267395</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2562,14 +2247,14 @@
       <c r="I47" t="s">
         <v>18</v>
       </c>
-      <c r="J47">
-        <v>32015</v>
+      <c r="J47" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2582,7 +2267,7 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>-0.22800045272505295</v>
       </c>
       <c r="F48" t="s">
@@ -2597,14 +2282,14 @@
       <c r="I48" t="s">
         <v>19</v>
       </c>
-      <c r="J48">
-        <v>32015</v>
+      <c r="J48" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2302,7 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>-0.22954121346094922</v>
       </c>
       <c r="F49" t="s">
@@ -2632,14 +2317,14 @@
       <c r="I49" t="s">
         <v>19</v>
       </c>
-      <c r="J49">
-        <v>32015</v>
+      <c r="J49" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2337,7 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>-0.30671039070168055</v>
       </c>
       <c r="F50" t="s">
@@ -2667,14 +2352,14 @@
       <c r="I50" t="s">
         <v>18</v>
       </c>
-      <c r="J50">
-        <v>32015</v>
+      <c r="J50" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2687,7 +2372,7 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>-0.17980986254059264</v>
       </c>
       <c r="F51" t="s">
@@ -2702,14 +2387,14 @@
       <c r="I51" t="s">
         <v>19</v>
       </c>
-      <c r="J51">
-        <v>32015</v>
+      <c r="J51" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2722,8 +2407,8 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52">
-        <v>-2.8116969451639422E-2</v>
+      <c r="E52" t="n">
+        <v>-0.028116969451639422</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2737,14 +2422,14 @@
       <c r="I52" t="s">
         <v>19</v>
       </c>
-      <c r="J52">
-        <v>32015</v>
+      <c r="J52" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +2442,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53">
-        <v>9.3693914588909272E-2</v>
+      <c r="E53" t="n">
+        <v>0.09369391458890927</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2772,14 +2457,14 @@
       <c r="I53" t="s">
         <v>19</v>
       </c>
-      <c r="J53">
-        <v>32015</v>
+      <c r="J53" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2792,8 +2477,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54">
-        <v>-9.8260752386452738E-2</v>
+      <c r="E54" t="n">
+        <v>-0.09826075238645274</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2807,14 +2492,14 @@
       <c r="I54" t="s">
         <v>19</v>
       </c>
-      <c r="J54">
-        <v>32015</v>
+      <c r="J54" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2827,8 +2512,8 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55">
-        <v>-3.963218886627215E-2</v>
+      <c r="E55" t="n">
+        <v>-0.03963218886627215</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2842,14 +2527,14 @@
       <c r="I55" t="s">
         <v>19</v>
       </c>
-      <c r="J55">
-        <v>32015</v>
+      <c r="J55" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2862,8 +2547,8 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E56">
-        <v>-1.4520694571264928E-2</v>
+      <c r="E56" t="n">
+        <v>-0.014520694571264928</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2877,14 +2562,14 @@
       <c r="I56" t="s">
         <v>19</v>
       </c>
-      <c r="J56">
-        <v>32015</v>
+      <c r="J56" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2582,7 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>-0.138111261813815</v>
       </c>
       <c r="F57" t="s">
@@ -2912,14 +2597,14 @@
       <c r="I57" t="s">
         <v>19</v>
       </c>
-      <c r="J57">
-        <v>32015</v>
+      <c r="J57" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2932,8 +2617,8 @@
       <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="E58">
-        <v>4.4226473836673205E-2</v>
+      <c r="E58" t="n">
+        <v>0.044226473836673205</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2947,14 +2632,14 @@
       <c r="I58" t="s">
         <v>19</v>
       </c>
-      <c r="J58">
-        <v>32015</v>
+      <c r="J58" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2967,8 +2652,8 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59">
-        <v>-8.0380971505813095E-2</v>
+      <c r="E59" t="n">
+        <v>-0.0803809715058131</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2982,14 +2667,14 @@
       <c r="I59" t="s">
         <v>19</v>
       </c>
-      <c r="J59">
-        <v>32015</v>
+      <c r="J59" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3002,7 +2687,7 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>-0.10713593816917999</v>
       </c>
       <c r="F60" t="s">
@@ -3017,14 +2702,14 @@
       <c r="I60" t="s">
         <v>19</v>
       </c>
-      <c r="J60">
-        <v>32015</v>
+      <c r="J60" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +2722,7 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>-0.12579916047949982</v>
       </c>
       <c r="F61" t="s">
@@ -3052,14 +2737,14 @@
       <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="J61">
-        <v>32015</v>
+      <c r="J61" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3072,8 +2757,8 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="E62">
-        <v>-1.1535601534138042E-2</v>
+      <c r="E62" t="n">
+        <v>-0.011535601534138042</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -3087,14 +2772,14 @@
       <c r="I62" t="s">
         <v>19</v>
       </c>
-      <c r="J62">
-        <v>32015</v>
+      <c r="J62" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +2792,7 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>0.12461242678001185</v>
       </c>
       <c r="F63" t="s">
@@ -3122,14 +2807,14 @@
       <c r="I63" t="s">
         <v>19</v>
       </c>
-      <c r="J63">
-        <v>32015</v>
+      <c r="J63" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3142,8 +2827,8 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64">
-        <v>8.3220694377297316E-2</v>
+      <c r="E64" t="n">
+        <v>0.08322069437729732</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -3157,14 +2842,14 @@
       <c r="I64" t="s">
         <v>19</v>
       </c>
-      <c r="J64">
-        <v>32015</v>
+      <c r="J64" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3177,8 +2862,8 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="E65">
-        <v>-3.004766939886264E-2</v>
+      <c r="E65" t="n">
+        <v>-0.03004766939886264</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -3192,14 +2877,14 @@
       <c r="I65" t="s">
         <v>19</v>
       </c>
-      <c r="J65">
-        <v>32015</v>
+      <c r="J65" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +2897,7 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>0.15300819339807387</v>
       </c>
       <c r="F66" t="s">
@@ -3227,14 +2912,14 @@
       <c r="I66" t="s">
         <v>19</v>
       </c>
-      <c r="J66">
-        <v>32015</v>
+      <c r="J66" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3247,8 +2932,8 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="E67">
-        <v>-9.5999863878376612E-2</v>
+      <c r="E67" t="n">
+        <v>-0.09599986387837661</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -3262,14 +2947,14 @@
       <c r="I67" t="s">
         <v>19</v>
       </c>
-      <c r="J67">
-        <v>32015</v>
+      <c r="J67" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +2967,7 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>0.12926276982995077</v>
       </c>
       <c r="F68" t="s">
@@ -3297,14 +2982,14 @@
       <c r="I68" t="s">
         <v>19</v>
       </c>
-      <c r="J68">
-        <v>32015</v>
+      <c r="J68" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3317,8 +3002,8 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="E69">
-        <v>-6.3747140084728536E-3</v>
+      <c r="E69" t="n">
+        <v>-0.006374714008472854</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -3332,14 +3017,14 @@
       <c r="I69" t="s">
         <v>19</v>
       </c>
-      <c r="J69">
-        <v>32015</v>
+      <c r="J69" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3352,8 +3037,8 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="E70">
-        <v>-6.1390429574894939E-3</v>
+      <c r="E70" t="n">
+        <v>-0.006139042957489494</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3367,14 +3052,14 @@
       <c r="I70" t="s">
         <v>19</v>
       </c>
-      <c r="J70">
-        <v>32015</v>
+      <c r="J70" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3387,8 +3072,8 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E71">
-        <v>-3.6208231897446694E-2</v>
+      <c r="E71" t="n">
+        <v>-0.036208231897446694</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -3402,14 +3087,14 @@
       <c r="I71" t="s">
         <v>19</v>
       </c>
-      <c r="J71">
-        <v>32015</v>
+      <c r="J71" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3107,7 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>-0.11633891573946546</v>
       </c>
       <c r="F72" t="s">
@@ -3437,14 +3122,14 @@
       <c r="I72" t="s">
         <v>19</v>
       </c>
-      <c r="J72">
-        <v>32015</v>
+      <c r="J72" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3457,8 +3142,8 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="E73">
-        <v>5.7692203269313604E-2</v>
+      <c r="E73" t="n">
+        <v>0.057692203269313604</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -3472,14 +3157,14 @@
       <c r="I73" t="s">
         <v>19</v>
       </c>
-      <c r="J73">
-        <v>32015</v>
+      <c r="J73" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3492,8 +3177,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="E74">
-        <v>-9.0984396353204475E-2</v>
+      <c r="E74" t="n">
+        <v>-0.09098439635320447</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -3507,14 +3192,14 @@
       <c r="I74" t="s">
         <v>19</v>
       </c>
-      <c r="J74">
-        <v>32015</v>
+      <c r="J74" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3527,8 +3212,8 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75">
-        <v>3.6293194252003023E-2</v>
+      <c r="E75" t="n">
+        <v>0.03629319425200302</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -3542,14 +3227,14 @@
       <c r="I75" t="s">
         <v>19</v>
       </c>
-      <c r="J75">
-        <v>32015</v>
+      <c r="J75" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3247,7 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>-0.1485893956867525</v>
       </c>
       <c r="F76" t="s">
@@ -3577,14 +3262,14 @@
       <c r="I76" t="s">
         <v>19</v>
       </c>
-      <c r="J76">
-        <v>32015</v>
+      <c r="J76" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3597,8 +3282,8 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="E77">
-        <v>-6.0782633371422728E-2</v>
+      <c r="E77" t="n">
+        <v>-0.06078263337142273</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -3612,14 +3297,14 @@
       <c r="I77" t="s">
         <v>19</v>
       </c>
-      <c r="J77">
-        <v>32015</v>
+      <c r="J77" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K77" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3632,8 +3317,8 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="E78">
-        <v>-2.3909304260859941E-2</v>
+      <c r="E78" t="n">
+        <v>-0.02390930426085994</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -3647,14 +3332,14 @@
       <c r="I78" t="s">
         <v>19</v>
       </c>
-      <c r="J78">
-        <v>32015</v>
+      <c r="J78" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3667,8 +3352,8 @@
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79">
-        <v>-6.3978127515972219E-2</v>
+      <c r="E79" t="n">
+        <v>-0.06397812751597222</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -3682,14 +3367,14 @@
       <c r="I79" t="s">
         <v>19</v>
       </c>
-      <c r="J79">
-        <v>32015</v>
+      <c r="J79" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3702,8 +3387,8 @@
       <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="E80">
-        <v>7.4807176334293641E-3</v>
+      <c r="E80" t="n">
+        <v>0.007480717633429364</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3717,14 +3402,14 @@
       <c r="I80" t="s">
         <v>19</v>
       </c>
-      <c r="J80">
-        <v>32015</v>
+      <c r="J80" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +3422,7 @@
       <c r="D81" t="s">
         <v>16</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>-0.14435235299948027</v>
       </c>
       <c r="F81" t="s">
@@ -3752,14 +3437,14 @@
       <c r="I81" t="s">
         <v>19</v>
       </c>
-      <c r="J81">
-        <v>32015</v>
+      <c r="J81" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3772,8 +3457,8 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
-      <c r="E82">
-        <v>4.6513425669607457E-2</v>
+      <c r="E82" t="n">
+        <v>0.04651342566960746</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -3787,14 +3472,14 @@
       <c r="I82" t="s">
         <v>19</v>
       </c>
-      <c r="J82">
-        <v>32015</v>
+      <c r="J82" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3807,8 +3492,8 @@
       <c r="D83" t="s">
         <v>16</v>
       </c>
-      <c r="E83">
-        <v>5.4014735303448379E-3</v>
+      <c r="E83" t="n">
+        <v>0.005401473530344838</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -3822,27 +3507,27 @@
       <c r="I83" t="s">
         <v>19</v>
       </c>
-      <c r="J83">
-        <v>32015</v>
+      <c r="J83" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3896,8 +3581,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>-2.0700361471181879E-2</v>
+      <c r="E2" t="n">
+        <v>-0.02070036147118188</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3911,20 +3596,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>-6.5447338847422445E-2</v>
-      </c>
-      <c r="K2">
-        <v>2.4046615905058771E-2</v>
-      </c>
-      <c r="L2">
-        <v>32015</v>
+      <c r="J2" t="n">
+        <v>-0.06544733884742245</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02404661590505877</v>
+      </c>
+      <c r="L2" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3937,8 +3622,8 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>6.774927511086512E-2</v>
+      <c r="E3" t="n">
+        <v>0.06774927511086512</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3952,20 +3637,20 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>2.3979984109237483E-2</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>0.023979984109237483</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.11151856611249311</v>
       </c>
-      <c r="L3">
-        <v>32015</v>
+      <c r="L3" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3978,8 +3663,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>4.6765251955286566E-2</v>
+      <c r="E4" t="n">
+        <v>0.046765251955286566</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -3993,20 +3678,20 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>-1.8315378253182003E-2</v>
-      </c>
-      <c r="K4">
+      <c r="J4" t="n">
+        <v>-0.018315378253182003</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.11184588216375477</v>
       </c>
-      <c r="L4">
-        <v>32015</v>
+      <c r="L4" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4019,8 +3704,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>5.1966274300126951E-2</v>
+      <c r="E5" t="n">
+        <v>0.05196627430012695</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -4034,20 +3719,20 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>1.0799908482069839E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.3132640118183896E-2</v>
-      </c>
-      <c r="L5">
-        <v>32015</v>
+      <c r="J5" t="n">
+        <v>0.01079990848206984</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0931326401181839</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4060,7 +3745,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.32132604006865484</v>
       </c>
       <c r="F6" t="s">
@@ -4075,20 +3760,20 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.28027634140485275</v>
       </c>
-      <c r="K6">
-        <v>0.36237573873245249</v>
-      </c>
-      <c r="L6">
-        <v>32015</v>
+      <c r="K6" t="n">
+        <v>0.3623757387324525</v>
+      </c>
+      <c r="L6" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4101,7 +3786,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.30582919599786484</v>
       </c>
       <c r="F7" t="s">
@@ -4116,20 +3801,20 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
-        <v>0.26057095373285472</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="n">
+        <v>0.2605709537328547</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.35108743826287364</v>
       </c>
-      <c r="L7">
-        <v>32015</v>
+      <c r="L7" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4142,8 +3827,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>7.2189886903844683E-3</v>
+      <c r="E8" t="n">
+        <v>0.007218988690384468</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -4157,20 +3842,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>-3.3271979885678642E-2</v>
-      </c>
-      <c r="K8">
-        <v>4.770995726644759E-2</v>
-      </c>
-      <c r="L8">
-        <v>32015</v>
+      <c r="J8" t="n">
+        <v>-0.03327197988567864</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04770995726644759</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4183,8 +3868,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>7.7579282740175226E-2</v>
+      <c r="E9" t="n">
+        <v>0.07757928274017523</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -4198,20 +3883,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>3.0895820089515372E-2</v>
-      </c>
-      <c r="K9">
+      <c r="J9" t="n">
+        <v>0.03089582008951537</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.12426274539083569</v>
       </c>
-      <c r="L9">
-        <v>32015</v>
+      <c r="L9" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4224,8 +3909,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>1.7986517801016164E-2</v>
+      <c r="E10" t="n">
+        <v>0.017986517801016164</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -4239,20 +3924,20 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10">
-        <v>-3.0156328280501989E-2</v>
-      </c>
-      <c r="K10">
-        <v>6.61293638825345E-2</v>
-      </c>
-      <c r="L10">
-        <v>32015</v>
+      <c r="J10" t="n">
+        <v>-0.03015632828050199</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0661293638825345</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4265,8 +3950,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>3.5746259127484352E-2</v>
+      <c r="E11" t="n">
+        <v>0.03574625912748435</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -4280,20 +3965,20 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>-4.0459812384751895E-2</v>
-      </c>
-      <c r="K11">
+      <c r="J11" t="n">
+        <v>-0.040459812384751895</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.11195233063972025</v>
       </c>
-      <c r="L11">
-        <v>32015</v>
+      <c r="L11" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4306,7 +3991,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>-0.10994005513652809</v>
       </c>
       <c r="F12" t="s">
@@ -4321,20 +4006,20 @@
       <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>-0.17183524100234798</v>
       </c>
-      <c r="K12">
-        <v>-4.8044869270708793E-2</v>
-      </c>
-      <c r="L12">
-        <v>32015</v>
+      <c r="K12" t="n">
+        <v>-0.04804486927070879</v>
+      </c>
+      <c r="L12" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4032,7 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>-0.13976023167429744</v>
       </c>
       <c r="F13" t="s">
@@ -4362,20 +4047,20 @@
       <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-0.19531724878081747</v>
       </c>
-      <c r="K13">
-        <v>-8.420321456777656E-2</v>
-      </c>
-      <c r="L13">
-        <v>32015</v>
+      <c r="K13" t="n">
+        <v>-0.08420321456777656</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4388,7 +4073,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-0.11487793536466046</v>
       </c>
       <c r="F14" t="s">
@@ -4403,20 +4088,20 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14">
-        <v>-0.19625973209081149</v>
-      </c>
-      <c r="K14">
-        <v>-3.3496138638508283E-2</v>
-      </c>
-      <c r="L14">
-        <v>32015</v>
+      <c r="J14" t="n">
+        <v>-0.1962597320908115</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.03349613863850828</v>
+      </c>
+      <c r="L14" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4114,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>-0.16836574689676584</v>
       </c>
       <c r="F15" t="s">
@@ -4444,20 +4129,20 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.21981383937913934</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.11691765441439522</v>
       </c>
-      <c r="L15">
-        <v>32015</v>
+      <c r="L15" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4470,7 +4155,7 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>-0.15534810257732024</v>
       </c>
       <c r="F16" t="s">
@@ -4485,20 +4170,20 @@
       <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J16">
-        <v>-0.20398910167209111</v>
-      </c>
-      <c r="K16">
+      <c r="J16" t="n">
+        <v>-0.2039891016720911</v>
+      </c>
+      <c r="K16" t="n">
         <v>-0.10670710348255075</v>
       </c>
-      <c r="L16">
-        <v>32015</v>
+      <c r="L16" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4511,8 +4196,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>-7.3787739297653074E-2</v>
+      <c r="E17" t="n">
+        <v>-0.07378773929765307</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4526,20 +4211,20 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.13196395090238802</v>
       </c>
-      <c r="K17">
-        <v>-1.5611527692916821E-2</v>
-      </c>
-      <c r="L17">
-        <v>32015</v>
+      <c r="K17" t="n">
+        <v>-0.015611527692916821</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4552,8 +4237,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>-9.3559683868777693E-2</v>
+      <c r="E18" t="n">
+        <v>-0.0935596838687777</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -4567,20 +4252,20 @@
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.1462974947704275</v>
       </c>
-      <c r="K18">
-        <v>-4.0821872967125798E-2</v>
-      </c>
-      <c r="L18">
-        <v>32015</v>
+      <c r="K18" t="n">
+        <v>-0.0408218729671258</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4593,7 +4278,7 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>-0.11194435353037856</v>
       </c>
       <c r="F19" t="s">
@@ -4608,20 +4293,20 @@
       <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.16085888238797968</v>
       </c>
-      <c r="K19">
-        <v>-6.3029824672777818E-2</v>
-      </c>
-      <c r="L19">
-        <v>32015</v>
+      <c r="K19" t="n">
+        <v>-0.06302982467277782</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4634,8 +4319,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>-0.14191164581732851</v>
+      <c r="E20" t="n">
+        <v>-0.1419116458173285</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -4649,20 +4334,20 @@
       <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>-0.20673377960562545</v>
       </c>
-      <c r="K20">
-        <v>-7.708951202903265E-2</v>
-      </c>
-      <c r="L20">
-        <v>32015</v>
+      <c r="K20" t="n">
+        <v>-0.07708951202903265</v>
+      </c>
+      <c r="L20" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4675,8 +4360,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>-2.384407852686269E-2</v>
+      <c r="E21" t="n">
+        <v>-0.02384407852686269</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -4690,20 +4375,20 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21">
-        <v>-8.4247480773580172E-2</v>
-      </c>
-      <c r="K21">
-        <v>3.6559323719854875E-2</v>
-      </c>
-      <c r="L21">
-        <v>32015</v>
+      <c r="J21" t="n">
+        <v>-0.08424748077358017</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.036559323719854875</v>
+      </c>
+      <c r="L21" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4716,8 +4401,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>2.3463263574383979E-2</v>
+      <c r="E22" t="n">
+        <v>0.02346326357438398</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -4731,20 +4416,20 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>-3.8504459110020331E-2</v>
-      </c>
-      <c r="K22">
-        <v>8.543098625878856E-2</v>
-      </c>
-      <c r="L22">
-        <v>32015</v>
+      <c r="J22" t="n">
+        <v>-0.03850445911002033</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.08543098625878856</v>
+      </c>
+      <c r="L22" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +4442,7 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>-0.21620946753966913</v>
       </c>
       <c r="F23" t="s">
@@ -4772,20 +4457,20 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-0.26170810215915824</v>
       </c>
-      <c r="K23">
-        <v>-0.17071083292017969</v>
-      </c>
-      <c r="L23">
-        <v>32015</v>
+      <c r="K23" t="n">
+        <v>-0.1707108329201797</v>
+      </c>
+      <c r="L23" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4798,8 +4483,8 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
-        <v>-7.4212079032420455E-2</v>
+      <c r="E24" t="n">
+        <v>-0.07421207903242046</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -4813,20 +4498,20 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24">
-        <v>-0.15529431570915669</v>
-      </c>
-      <c r="K24">
-        <v>6.8701576443167822E-3</v>
-      </c>
-      <c r="L24">
-        <v>32015</v>
+      <c r="J24" t="n">
+        <v>-0.1552943157091567</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.006870157644316782</v>
+      </c>
+      <c r="L24" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4839,7 +4524,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>-0.14005840163535213</v>
       </c>
       <c r="F25" t="s">
@@ -4854,20 +4539,20 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.19283740735514068</v>
       </c>
-      <c r="K25">
-        <v>-8.7279395915563301E-2</v>
-      </c>
-      <c r="L25">
-        <v>32015</v>
+      <c r="K25" t="n">
+        <v>-0.0872793959155633</v>
+      </c>
+      <c r="L25" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4880,8 +4565,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>1.5099613400860717E-2</v>
+      <c r="E26" t="n">
+        <v>0.015099613400860717</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -4895,20 +4580,20 @@
       <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="J26">
-        <v>-6.5703866365733388E-2</v>
-      </c>
-      <c r="K26">
-        <v>9.5903093167454961E-2</v>
-      </c>
-      <c r="L26">
-        <v>32015</v>
+      <c r="J26" t="n">
+        <v>-0.06570386636573339</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.09590309316745496</v>
+      </c>
+      <c r="L26" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4921,8 +4606,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>-8.5552565920258006E-2</v>
+      <c r="E27" t="n">
+        <v>-0.085552565920258</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -4936,20 +4621,20 @@
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-0.1356116672214725</v>
       </c>
-      <c r="K27">
-        <v>-3.5493464619045206E-2</v>
-      </c>
-      <c r="L27">
-        <v>32015</v>
+      <c r="K27" t="n">
+        <v>-0.035493464619045206</v>
+      </c>
+      <c r="L27" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4962,8 +4647,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
-        <v>-2.1681214769173656E-2</v>
+      <c r="E28" t="n">
+        <v>-0.021681214769173656</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -4977,20 +4662,20 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
-        <v>-7.4126376494479715E-2</v>
-      </c>
-      <c r="K28">
-        <v>3.0763946956132476E-2</v>
-      </c>
-      <c r="L28">
-        <v>32015</v>
+      <c r="J28" t="n">
+        <v>-0.07412637649447971</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.030763946956132476</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -5003,7 +4688,7 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>-0.18559722478154753</v>
       </c>
       <c r="F29" t="s">
@@ -5018,20 +4703,20 @@
       <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>-0.23644174760837</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.13475270195472278</v>
       </c>
-      <c r="L29">
-        <v>32015</v>
+      <c r="L29" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -5044,8 +4729,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>-9.4174078903252953E-2</v>
+      <c r="E30" t="n">
+        <v>-0.09417407890325295</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -5059,20 +4744,20 @@
       <c r="I30" t="s">
         <v>18</v>
       </c>
-      <c r="J30">
-        <v>-0.14768300599827811</v>
-      </c>
-      <c r="K30">
-        <v>-4.0665151808228481E-2</v>
-      </c>
-      <c r="L30">
-        <v>32015</v>
+      <c r="J30" t="n">
+        <v>-0.1476830059982781</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.04066515180822848</v>
+      </c>
+      <c r="L30" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -5085,8 +4770,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31">
-        <v>-5.2701299760921409E-2</v>
+      <c r="E31" t="n">
+        <v>-0.05270129976092141</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -5100,20 +4785,20 @@
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>-0.11679341352408756</v>
       </c>
-      <c r="K31">
-        <v>1.1390814002245141E-2</v>
-      </c>
-      <c r="L31">
-        <v>32015</v>
+      <c r="K31" t="n">
+        <v>0.01139081400224514</v>
+      </c>
+      <c r="L31" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5126,8 +4811,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>-5.2138543483863146E-2</v>
+      <c r="E32" t="n">
+        <v>-0.052138543483863146</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -5141,20 +4826,20 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>-0.11555767543084364</v>
       </c>
-      <c r="K32">
-        <v>1.1280588463116276E-2</v>
-      </c>
-      <c r="L32">
-        <v>32015</v>
+      <c r="K32" t="n">
+        <v>0.011280588463116276</v>
+      </c>
+      <c r="L32" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5167,7 +4852,7 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>0.11410902783396851</v>
       </c>
       <c r="F33" t="s">
@@ -5182,20 +4867,20 @@
       <c r="I33" t="s">
         <v>18</v>
       </c>
-      <c r="J33">
-        <v>3.5107687910764088E-2</v>
-      </c>
-      <c r="K33">
+      <c r="J33" t="n">
+        <v>0.03510768791076409</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.193110367757173</v>
       </c>
-      <c r="L33">
-        <v>32015</v>
+      <c r="L33" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +4893,7 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>-0.1103624950692035</v>
       </c>
       <c r="F34" t="s">
@@ -5223,20 +4908,20 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>-0.16153504684431452</v>
       </c>
-      <c r="K34">
-        <v>-5.9189943294093286E-2</v>
-      </c>
-      <c r="L34">
-        <v>32015</v>
+      <c r="K34" t="n">
+        <v>-0.059189943294093286</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5249,7 +4934,7 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>-0.12163825769320231</v>
       </c>
       <c r="F35" t="s">
@@ -5264,20 +4949,20 @@
       <c r="I35" t="s">
         <v>18</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>-0.18122193274597498</v>
       </c>
-      <c r="K35">
-        <v>-6.2054582640429144E-2</v>
-      </c>
-      <c r="L35">
-        <v>32015</v>
+      <c r="K35" t="n">
+        <v>-0.062054582640429144</v>
+      </c>
+      <c r="L35" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5290,8 +4975,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
-        <v>-9.2687566308788105E-2</v>
+      <c r="E36" t="n">
+        <v>-0.0926875663087881</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -5305,20 +4990,20 @@
       <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>-0.1926994065621932</v>
       </c>
-      <c r="K36">
-        <v>7.3242739446165023E-3</v>
-      </c>
-      <c r="L36">
-        <v>32015</v>
+      <c r="K36" t="n">
+        <v>0.007324273944616502</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -5331,7 +5016,7 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>-0.1310601443174054</v>
       </c>
       <c r="F37" t="s">
@@ -5346,20 +5031,20 @@
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>-0.19365471414755364</v>
       </c>
-      <c r="K37">
-        <v>-6.8465574487257527E-2</v>
-      </c>
-      <c r="L37">
-        <v>32015</v>
+      <c r="K37" t="n">
+        <v>-0.06846557448725753</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5372,8 +5057,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
-        <v>-9.4825700403519717E-2</v>
+      <c r="E38" t="n">
+        <v>-0.09482570040351972</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -5387,20 +5072,20 @@
       <c r="I38" t="s">
         <v>18</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-0.14956727125885136</v>
       </c>
-      <c r="K38">
-        <v>-4.0084129548188678E-2</v>
-      </c>
-      <c r="L38">
-        <v>32015</v>
+      <c r="K38" t="n">
+        <v>-0.04008412954818868</v>
+      </c>
+      <c r="L38" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5098,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>-0.14024226010161792</v>
       </c>
       <c r="F39" t="s">
@@ -5428,20 +5113,20 @@
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-0.2027043477537594</v>
       </c>
-      <c r="K39">
-        <v>-7.7780172449477478E-2</v>
-      </c>
-      <c r="L39">
-        <v>32015</v>
+      <c r="K39" t="n">
+        <v>-0.07778017244947748</v>
+      </c>
+      <c r="L39" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5454,7 +5139,7 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>-0.15735244275653593</v>
       </c>
       <c r="F40" t="s">
@@ -5469,20 +5154,20 @@
       <c r="I40" t="s">
         <v>18</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.2079822930261585</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.10672259248691246</v>
       </c>
-      <c r="L40">
-        <v>32015</v>
+      <c r="L40" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -5495,8 +5180,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41">
-        <v>6.0788231980251819E-3</v>
+      <c r="E41" t="n">
+        <v>0.006078823198025182</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -5510,20 +5195,20 @@
       <c r="I41" t="s">
         <v>18</v>
       </c>
-      <c r="J41">
-        <v>3.8791829193306512E-3</v>
-      </c>
-      <c r="K41">
-        <v>8.2784634767197485E-3</v>
-      </c>
-      <c r="L41">
-        <v>32015</v>
+      <c r="J41" t="n">
+        <v>0.0038791829193306512</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.008278463476719749</v>
+      </c>
+      <c r="L41" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5536,8 +5221,8 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
-        <v>4.0696132981489067E-2</v>
+      <c r="E42" t="n">
+        <v>0.04069613298148907</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -5551,33 +5236,33 @@
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42">
-        <v>3.019886303890271E-2</v>
-      </c>
-      <c r="K42">
-        <v>5.119340292407526E-2</v>
-      </c>
-      <c r="L42">
-        <v>32015</v>
+      <c r="J42" t="n">
+        <v>0.03019886303890271</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.05119340292407526</v>
+      </c>
+      <c r="L42" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M42" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -5631,8 +5316,8 @@
       <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2">
-        <v>8.7693102161496908E-3</v>
+      <c r="E2" t="n">
+        <v>0.00876931021614969</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -5646,20 +5331,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>1.0584597577420769E-3</v>
-      </c>
-      <c r="K2">
-        <v>1.6480160674557313E-2</v>
-      </c>
-      <c r="L2">
-        <v>825</v>
+      <c r="J2" t="n">
+        <v>0.0010584597577420769</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.016480160674557313</v>
+      </c>
+      <c r="L2" t="n">
+        <v>825.0</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5672,8 +5357,8 @@
       <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="E3">
-        <v>2.8943632334056482E-3</v>
+      <c r="E3" t="n">
+        <v>0.002894363233405648</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5687,20 +5372,20 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
-        <v>-9.4685293112191007E-3</v>
-      </c>
-      <c r="K3">
-        <v>1.5257255778030393E-2</v>
-      </c>
-      <c r="L3">
-        <v>586</v>
+      <c r="J3" t="n">
+        <v>-0.0094685293112191</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.015257255778030393</v>
+      </c>
+      <c r="L3" t="n">
+        <v>586.0</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5713,8 +5398,8 @@
       <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4">
-        <v>-2.7159837578132492E-3</v>
+      <c r="E4" t="n">
+        <v>-0.002715983757813249</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5728,20 +5413,20 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>-9.01171115723267E-3</v>
-      </c>
-      <c r="K4">
-        <v>3.5797436416061664E-3</v>
-      </c>
-      <c r="L4">
-        <v>1573</v>
+      <c r="J4" t="n">
+        <v>-0.00901171115723267</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0035797436416061664</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1573.0</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5754,8 +5439,8 @@
       <c r="D5" t="s">
         <v>107</v>
       </c>
-      <c r="E5">
-        <v>-1.3043476588302596E-2</v>
+      <c r="E5" t="n">
+        <v>-0.013043476588302596</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -5769,20 +5454,20 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>-3.2941368255044005E-2</v>
-      </c>
-      <c r="K5">
-        <v>6.8544150784388188E-3</v>
-      </c>
-      <c r="L5">
-        <v>173</v>
+      <c r="J5" t="n">
+        <v>-0.032941368255044005</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.006854415078438819</v>
+      </c>
+      <c r="L5" t="n">
+        <v>173.0</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -5795,8 +5480,8 @@
       <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="E6">
-        <v>-1.8908778341861635E-3</v>
+      <c r="E6" t="n">
+        <v>-0.0018908778341861635</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -5810,20 +5495,20 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
-        <v>-5.2781911616695256E-3</v>
-      </c>
-      <c r="K6">
-        <v>1.4964354932971993E-3</v>
-      </c>
-      <c r="L6">
-        <v>4829</v>
+      <c r="J6" t="n">
+        <v>-0.005278191161669526</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0014964354932971993</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4829.0</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5836,8 +5521,8 @@
       <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="E7">
-        <v>3.6680597492950336E-3</v>
+      <c r="E7" t="n">
+        <v>0.0036680597492950336</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -5851,20 +5536,20 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>6.6308172455193E-4</v>
       </c>
-      <c r="K7">
-        <v>6.673037774038079E-3</v>
-      </c>
-      <c r="L7">
-        <v>11215</v>
+      <c r="K7" t="n">
+        <v>0.006673037774038079</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11215.0</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -5877,8 +5562,8 @@
       <c r="D8" t="s">
         <v>110</v>
       </c>
-      <c r="E8">
-        <v>1.7424286946593542E-3</v>
+      <c r="E8" t="n">
+        <v>0.0017424286946593542</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -5892,20 +5577,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>-5.3813225430704532E-3</v>
-      </c>
-      <c r="K8">
-        <v>8.8661799323891677E-3</v>
-      </c>
-      <c r="L8">
-        <v>2027</v>
+      <c r="J8" t="n">
+        <v>-0.005381322543070453</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.008866179932389168</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2027.0</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -5918,8 +5603,8 @@
       <c r="D9" t="s">
         <v>111</v>
       </c>
-      <c r="E9">
-        <v>-5.0770668899750206E-3</v>
+      <c r="E9" t="n">
+        <v>-0.005077066889975021</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -5933,20 +5618,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>-7.0456434637794618E-3</v>
-      </c>
-      <c r="K9">
-        <v>-3.1084903161705557E-3</v>
-      </c>
-      <c r="L9">
-        <v>9425</v>
+      <c r="J9" t="n">
+        <v>-0.007045643463779462</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.0031084903161705557</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9425.0</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5959,8 +5644,8 @@
       <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="E10">
-        <v>6.578028240524449E-3</v>
+      <c r="E10" t="n">
+        <v>0.006578028240524449</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -5974,35 +5659,33 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10">
-        <v>-9.6030162622076816E-5</v>
-      </c>
-      <c r="K10">
-        <v>1.3252086643670953E-2</v>
-      </c>
-      <c r="L10">
-        <v>1362</v>
+      <c r="J10" t="n">
+        <v>-9.603016262207682E-5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.013252086643670953</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1362.0</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="A1:L33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +5726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6054,37 +5737,37 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2">
-        <v>4.9933538338607281E-2</v>
+        <v>114</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.001328226534761028</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>2.4755090309635207E-2</v>
-      </c>
-      <c r="K2">
-        <v>7.511198636757932E-2</v>
-      </c>
-      <c r="L2">
-        <v>570</v>
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.02782328369847815</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.025166830628956093</v>
+      </c>
+      <c r="L2" t="n">
+        <v>663.0</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6095,37 +5778,37 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3">
-        <v>4.9871596403314192E-2</v>
+        <v>115</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.9317029156975785E-4</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>1.7035533158692849E-2</v>
-      </c>
-      <c r="K3">
-        <v>8.2707659647935611E-2</v>
-      </c>
-      <c r="L3">
-        <v>436</v>
+        <v>19</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.005940442229231801</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.006526782812371316</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2482.0</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -6136,10 +5819,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>2.472540056973636E-2</v>
+        <v>116</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04987159640331419</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -6151,22 +5834,22 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>5.1254600229831311E-3</v>
-      </c>
-      <c r="K4">
-        <v>4.4325341116489572E-2</v>
-      </c>
-      <c r="L4">
-        <v>879</v>
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01703553315869285</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08270765964793561</v>
+      </c>
+      <c r="L4" t="n">
+        <v>436.0</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6177,37 +5860,37 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5">
-        <v>2.3575505810775547E-2</v>
+        <v>117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.015468348683758496</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>1.6641088627635178E-2</v>
-      </c>
-      <c r="K5">
-        <v>3.0509922993915924E-2</v>
-      </c>
-      <c r="L5">
-        <v>1006</v>
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04162657054938688</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.010689873181869905</v>
+      </c>
+      <c r="L5" t="n">
+        <v>367.0</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -6218,37 +5901,37 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6">
-        <v>2.1859547506782137E-2</v>
+        <v>118</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.0024355683817285784</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
-        <v>3.2218833234848102E-3</v>
-      </c>
-      <c r="K6">
-        <v>4.0497211690079471E-2</v>
-      </c>
-      <c r="L6">
-        <v>796</v>
+      <c r="J6" t="n">
+        <v>-0.02148881911890817</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.016617682355451014</v>
+      </c>
+      <c r="L6" t="n">
+        <v>629.0</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6259,10 +5942,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7">
-        <v>2.1172896286719336E-2</v>
+        <v>119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0936354087929353E-4</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -6276,20 +5959,20 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7">
-        <v>-7.7252577219161858E-3</v>
-      </c>
-      <c r="K7">
-        <v>5.0071050295354878E-2</v>
-      </c>
-      <c r="L7">
-        <v>372</v>
+      <c r="J7" t="n">
+        <v>-0.030318294927853873</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03053702200961246</v>
+      </c>
+      <c r="L7" t="n">
+        <v>312.0</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6300,16 +5983,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8">
-        <v>1.9423162080532783E-2</v>
+        <v>120</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.014434174051575294</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -6317,20 +6000,20 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>-5.0259122618938473E-3</v>
-      </c>
-      <c r="K8">
-        <v>4.387223642295944E-2</v>
-      </c>
-      <c r="L8">
-        <v>373</v>
+      <c r="J8" t="n">
+        <v>-0.03106419577076576</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002195847667615188</v>
+      </c>
+      <c r="L8" t="n">
+        <v>761.0</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6343,8 +6026,8 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="E9">
-        <v>1.7543345973924752E-2</v>
+      <c r="E9" t="n">
+        <v>0.01754334597392475</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -6358,20 +6041,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>1.3520480228352769E-2</v>
-      </c>
-      <c r="K9">
-        <v>2.1566211719496742E-2</v>
-      </c>
-      <c r="L9">
-        <v>1941</v>
+      <c r="J9" t="n">
+        <v>0.013520480228352769</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.021566211719496742</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1941.0</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -6382,37 +6065,37 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10">
-        <v>1.7178872964022797E-2</v>
+        <v>122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.015295231445075773</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>8.8082323027330097E-3</v>
-      </c>
-      <c r="K10">
-        <v>2.5549513625312555E-2</v>
-      </c>
-      <c r="L10">
-        <v>901</v>
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.03376465835240952</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0031741954622579276</v>
+      </c>
+      <c r="L10" t="n">
+        <v>895.0</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6423,10 +6106,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11">
-        <v>1.5110526922642503E-2</v>
+        <v>123</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.00626229645745428</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -6440,20 +6123,20 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>-6.9504758235157723E-3</v>
-      </c>
-      <c r="K11">
-        <v>3.717152966880076E-2</v>
-      </c>
-      <c r="L11">
-        <v>643</v>
+      <c r="J11" t="n">
+        <v>-0.01568572967705444</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0031611367621458735</v>
+      </c>
+      <c r="L11" t="n">
+        <v>951.0</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -6464,10 +6147,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12">
-        <v>1.4707784189976638E-2</v>
+        <v>124</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.010645812207232262</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -6476,25 +6159,25 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
-        <v>1.1276436678770048E-4</v>
-      </c>
-      <c r="K12">
-        <v>2.9302804013165588E-2</v>
-      </c>
-      <c r="L12">
-        <v>864</v>
+      <c r="J12" t="n">
+        <v>-0.0214142203489858</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.2259593452128986E-4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1279.0</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6507,8 +6190,8 @@
       <c r="D13" t="s">
         <v>125</v>
       </c>
-      <c r="E13">
-        <v>1.1958607071179031E-2</v>
+      <c r="E13" t="n">
+        <v>0.011958607071179031</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -6522,20 +6205,20 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13">
-        <v>-8.5451888942752029E-3</v>
-      </c>
-      <c r="K13">
-        <v>3.2462403036633253E-2</v>
-      </c>
-      <c r="L13">
-        <v>582</v>
+      <c r="J13" t="n">
+        <v>-0.008545188894275203</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.03246240303663325</v>
+      </c>
+      <c r="L13" t="n">
+        <v>582.0</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6546,37 +6229,37 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14">
-        <v>5.3914881984691559E-3</v>
+        <v>126</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.021859547506782137</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
-        <v>-2.5174293430418819E-2</v>
-      </c>
-      <c r="K14">
-        <v>3.5957269827357127E-2</v>
-      </c>
-      <c r="L14">
-        <v>372</v>
+      <c r="J14" t="n">
+        <v>0.00322188332348481</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04049721169007947</v>
+      </c>
+      <c r="L14" t="n">
+        <v>796.0</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6587,37 +6270,37 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15">
-        <v>1.0854801396207104E-3</v>
+        <v>127</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02472540056973636</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15">
-        <v>-1.7082482795975728E-3</v>
-      </c>
-      <c r="K15">
-        <v>3.8792085588389958E-3</v>
-      </c>
-      <c r="L15">
-        <v>6288</v>
+      <c r="J15" t="n">
+        <v>0.005125460022983131</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.04432534111648957</v>
+      </c>
+      <c r="L15" t="n">
+        <v>879.0</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6628,10 +6311,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16">
-        <v>5.9567686297789765E-4</v>
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0010854801396207104</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -6645,20 +6328,20 @@
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16">
-        <v>-1.2248935308835932E-2</v>
-      </c>
-      <c r="K16">
-        <v>1.344028903479173E-2</v>
-      </c>
-      <c r="L16">
-        <v>1022</v>
+      <c r="J16" t="n">
+        <v>-0.0017082482795975728</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.003879208558838996</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6288.0</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6669,10 +6352,10 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17">
-        <v>2.9317029156975785E-4</v>
+        <v>129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.019423162080532783</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -6686,20 +6369,20 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="J17">
-        <v>-5.9404422292318008E-3</v>
-      </c>
-      <c r="K17">
-        <v>6.5267828123713161E-3</v>
-      </c>
-      <c r="L17">
-        <v>2482</v>
+      <c r="J17" t="n">
+        <v>-0.005025912261893847</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04387223642295944</v>
+      </c>
+      <c r="L17" t="n">
+        <v>373.0</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -6710,10 +6393,10 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18">
-        <v>1.0936354087929353E-4</v>
+        <v>130</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.00138298941743659</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -6727,20 +6410,20 @@
       <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="J18">
-        <v>-3.0318294927853873E-2</v>
-      </c>
-      <c r="K18">
-        <v>3.0537022009612461E-2</v>
-      </c>
-      <c r="L18">
-        <v>312</v>
+      <c r="J18" t="n">
+        <v>-0.008795066420354604</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.006029087585481425</v>
+      </c>
+      <c r="L18" t="n">
+        <v>886.0</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6751,10 +6434,10 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19">
-        <v>-1.3282265347610281E-3</v>
+        <v>131</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.021172896286719336</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -6768,20 +6451,20 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19">
-        <v>-2.7823283698478151E-2</v>
-      </c>
-      <c r="K19">
-        <v>2.5166830628956093E-2</v>
-      </c>
-      <c r="L19">
-        <v>663</v>
+      <c r="J19" t="n">
+        <v>-0.007725257721916186</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05007105029535488</v>
+      </c>
+      <c r="L19" t="n">
+        <v>372.0</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -6792,10 +6475,10 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20">
-        <v>-1.3829894174365899E-3</v>
+        <v>132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.0017391866134494542</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -6809,20 +6492,20 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20">
-        <v>-8.7950664203546042E-3</v>
-      </c>
-      <c r="K20">
-        <v>6.0290875854814253E-3</v>
-      </c>
-      <c r="L20">
-        <v>886</v>
+      <c r="J20" t="n">
+        <v>-0.01345056784686842</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.009972194619969513</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1286.0</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6833,37 +6516,37 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21">
-        <v>-1.7391866134494542E-3</v>
+        <v>133</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.017178872964022797</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>-1.3450567846868419E-2</v>
-      </c>
-      <c r="K21">
-        <v>9.9721946199695134E-3</v>
-      </c>
-      <c r="L21">
-        <v>1286</v>
+        <v>18</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.00880823230273301</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.025549513625312555</v>
+      </c>
+      <c r="L21" t="n">
+        <v>901.0</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6874,10 +6557,10 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22">
-        <v>-2.4355683817285784E-3</v>
+        <v>134</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.956768629778976E-4</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -6891,20 +6574,20 @@
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>-2.1488819118908171E-2</v>
-      </c>
-      <c r="K22">
-        <v>1.6617682355451014E-2</v>
-      </c>
-      <c r="L22">
-        <v>629</v>
+      <c r="J22" t="n">
+        <v>-0.012248935308835932</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01344028903479173</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1022.0</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6915,37 +6598,37 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23">
-        <v>-5.4074128138950316E-3</v>
+        <v>135</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.019508962461107716</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
       </c>
-      <c r="J23">
-        <v>-1.9053509542245287E-2</v>
-      </c>
-      <c r="K23">
-        <v>8.23868391445522E-3</v>
-      </c>
-      <c r="L23">
-        <v>1684</v>
+      <c r="J23" t="n">
+        <v>-0.03815081036197086</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-8.671145602445716E-4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>775.0</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -6956,10 +6639,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24">
-        <v>-6.2622964574542798E-3</v>
+        <v>136</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.015110526922642503</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -6973,20 +6656,20 @@
       <c r="I24" t="s">
         <v>19</v>
       </c>
-      <c r="J24">
-        <v>-1.5685729677054439E-2</v>
-      </c>
-      <c r="K24">
-        <v>3.1611367621458735E-3</v>
-      </c>
-      <c r="L24">
-        <v>951</v>
+      <c r="J24" t="n">
+        <v>-0.006950475823515772</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.03717152966880076</v>
+      </c>
+      <c r="L24" t="n">
+        <v>643.0</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6997,16 +6680,16 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25">
-        <v>-1.0645812207232262E-2</v>
+        <v>137</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.02043114269249268</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -7014,20 +6697,20 @@
       <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="J25">
-        <v>-2.14142203489858E-2</v>
-      </c>
-      <c r="K25">
-        <v>1.2259593452128986E-4</v>
-      </c>
-      <c r="L25">
-        <v>1279</v>
+      <c r="J25" t="n">
+        <v>-0.04718618494386443</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.006323899558879069</v>
+      </c>
+      <c r="L25" t="n">
+        <v>583.0</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -7038,37 +6721,37 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26">
-        <v>-1.2416444462769242E-2</v>
+        <v>138</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04993353833860728</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
-        <v>-3.1543215679050593E-2</v>
-      </c>
-      <c r="K26">
-        <v>6.7103267535121251E-3</v>
-      </c>
-      <c r="L26">
-        <v>669</v>
+        <v>18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.024755090309635207</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.07511198636757932</v>
+      </c>
+      <c r="L26" t="n">
+        <v>570.0</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -7079,16 +6762,16 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27">
-        <v>-1.4434174051575294E-2</v>
+        <v>139</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.0054074128138950316</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -7096,20 +6779,20 @@
       <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="J27">
-        <v>-3.106419577076576E-2</v>
-      </c>
-      <c r="K27">
-        <v>2.1958476676151879E-3</v>
-      </c>
-      <c r="L27">
-        <v>761</v>
+      <c r="J27" t="n">
+        <v>-0.019053509542245287</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.00823868391445522</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1684.0</v>
       </c>
       <c r="M27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -7120,10 +6803,10 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28">
-        <v>-1.5295231445075773E-2</v>
+        <v>140</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.012416444462769242</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -7137,20 +6820,20 @@
       <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
-        <v>-3.3764658352409521E-2</v>
-      </c>
-      <c r="K28">
-        <v>3.1741954622579276E-3</v>
-      </c>
-      <c r="L28">
-        <v>895</v>
+      <c r="J28" t="n">
+        <v>-0.03154321567905059</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.006710326753512125</v>
+      </c>
+      <c r="L28" t="n">
+        <v>669.0</v>
       </c>
       <c r="M28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -7161,10 +6844,10 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29">
-        <v>-1.530449087167637E-2</v>
+        <v>141</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005391488198469156</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -7178,20 +6861,20 @@
       <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="J29">
-        <v>-4.0580120761883554E-2</v>
-      </c>
-      <c r="K29">
-        <v>9.9711390185307398E-3</v>
-      </c>
-      <c r="L29">
-        <v>499</v>
+      <c r="J29" t="n">
+        <v>-0.02517429343041882</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.03595726982735713</v>
+      </c>
+      <c r="L29" t="n">
+        <v>372.0</v>
       </c>
       <c r="M29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7202,10 +6885,10 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30">
-        <v>-1.5468348683758496E-2</v>
+        <v>142</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.01530449087167637</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -7219,20 +6902,20 @@
       <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="J30">
-        <v>-4.1626570549386878E-2</v>
-      </c>
-      <c r="K30">
-        <v>1.0689873181869905E-2</v>
-      </c>
-      <c r="L30">
-        <v>367</v>
+      <c r="J30" t="n">
+        <v>-0.040580120761883554</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.00997113901853074</v>
+      </c>
+      <c r="L30" t="n">
+        <v>499.0</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -7243,10 +6926,10 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31">
-        <v>-1.9072363068173719E-2</v>
+        <v>143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.014707784189976638</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -7255,25 +6938,25 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31">
-        <v>-3.9961526085023763E-2</v>
-      </c>
-      <c r="K31">
-        <v>1.8167999486762912E-3</v>
-      </c>
-      <c r="L31">
-        <v>294</v>
+      <c r="J31" t="n">
+        <v>1.1276436678770048E-4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02930280401316559</v>
+      </c>
+      <c r="L31" t="n">
+        <v>864.0</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -7284,10 +6967,10 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32">
-        <v>-1.9508962461107716E-2</v>
+        <v>144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.01907236306817372</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -7296,25 +6979,25 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J32">
-        <v>-3.8150810361970863E-2</v>
-      </c>
-      <c r="K32">
-        <v>-8.6711456024457165E-4</v>
-      </c>
-      <c r="L32">
-        <v>775</v>
+      <c r="J32" t="n">
+        <v>-0.03996152608502376</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0018167999486762912</v>
+      </c>
+      <c r="L32" t="n">
+        <v>294.0</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -7325,53 +7008,50 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33">
-        <v>-2.0431142692492681E-2</v>
+        <v>145</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.023575505810775547</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33">
-        <v>-4.718618494386443E-2</v>
-      </c>
-      <c r="K33">
-        <v>6.3238995588790689E-3</v>
-      </c>
-      <c r="L33">
-        <v>583</v>
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01664108862763518</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.030509922993915924</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1006.0</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
-    <sortCondition descending="1" ref="E2:E33"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7412,7 +7092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -7425,8 +7105,8 @@
       <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2">
-        <v>-2.7041800711112558E-3</v>
+      <c r="E2" t="n">
+        <v>-0.002704180071111256</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7440,20 +7120,20 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>-6.1129143034798911E-3</v>
-      </c>
-      <c r="K2">
-        <v>7.0455416125738248E-4</v>
-      </c>
-      <c r="L2">
-        <v>6574</v>
+      <c r="J2" t="n">
+        <v>-0.006112914303479891</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.045541612573825E-4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6574.0</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7466,8 +7146,8 @@
       <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3">
-        <v>-9.6364018866652065E-4</v>
+      <c r="E3" t="n">
+        <v>-9.636401886665206E-4</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -7481,299 +7161,20 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
-        <v>-2.7120549505512902E-3</v>
-      </c>
-      <c r="K3">
-        <v>7.8477457321824925E-4</v>
-      </c>
-      <c r="L3">
-        <v>25486</v>
+      <c r="J3" t="n">
+        <v>-0.0027120549505512902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.847745732182493E-4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25486.0</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA41605-E73D-4584-B6B4-0946931FAE18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B41B06-2D60-4E9E-B21F-DB1C56680EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_orden_det_years.xlsx
@@ -7177,4 +7177,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44434B96-0F84-4560-8589-5432EDE6A5D4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A516077-9224-4475-A212-314E7FFB2BA9}"/>
 </file>